--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_9_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_9_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3730736.675733948</v>
+        <v>3730822.123529297</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21320.78642770746</v>
+        <v>21320.78642770713</v>
       </c>
     </row>
     <row r="9">
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -706,25 +706,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>38.88501798484931</v>
       </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>38.12502610536668</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="C3" t="n">
+      <c r="I3" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>38.12502610536669</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="4">
@@ -831,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>44.13217237922859</v>
+        <v>42.20118209180436</v>
       </c>
       <c r="I4" t="n">
         <v>44.13217237922859</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>44.13217237922859</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>44.13217237922859</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>44.13217237922859</v>
       </c>
       <c r="S5" t="n">
-        <v>16.93162886246722</v>
+        <v>38.88501798484931</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -986,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S6" t="n">
         <v>38.12502610536668</v>
       </c>
       <c r="T6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>44.13217237922859</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>19.9316902659215</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>19.9316902659215</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>93.41644634782179</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>93.41644634782179</v>
+        <v>53.46517163229067</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>93.41644634782179</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>93.41644634781956</v>
       </c>
       <c r="T8" t="n">
-        <v>60.34121737400412</v>
+        <v>93.41644634781956</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>93.41644634781956</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1217,22 +1217,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>93.41644634782179</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>93.41644634782179</v>
+        <v>85.55442811330607</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>93.41644634781956</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>93.41644634781956</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>93.41644634782179</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>81.53461461690353</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>93.41644634781956</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>14.7795886765591</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1335,7 +1335,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>295.2793665869989</v>
+        <v>295.2793665869987</v>
       </c>
       <c r="C11" t="n">
-        <v>277.8184166945259</v>
+        <v>277.8184166945257</v>
       </c>
       <c r="D11" t="n">
-        <v>267.2285665442013</v>
+        <v>267.2285665442011</v>
       </c>
       <c r="E11" t="n">
-        <v>294.4758949957801</v>
+        <v>294.4758949957799</v>
       </c>
       <c r="F11" t="n">
-        <v>319.4215706652298</v>
+        <v>319.4215706652296</v>
       </c>
       <c r="G11" t="n">
-        <v>325.4624288694551</v>
+        <v>325.4624288694549</v>
       </c>
       <c r="H11" t="n">
-        <v>227.5864089987339</v>
+        <v>227.5864089987337</v>
       </c>
       <c r="I11" t="n">
-        <v>31.04156581740669</v>
+        <v>31.04156581740848</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.19841205165848</v>
+        <v>67.19841205165798</v>
       </c>
       <c r="T11" t="n">
-        <v>125.1973880384843</v>
+        <v>125.1973880384842</v>
       </c>
       <c r="U11" t="n">
-        <v>163.7003111458189</v>
+        <v>163.7003111458201</v>
       </c>
       <c r="V11" t="n">
-        <v>240.2977833936532</v>
+        <v>240.297783393653</v>
       </c>
       <c r="W11" t="n">
-        <v>261.7864936409313</v>
+        <v>261.7864936409312</v>
       </c>
       <c r="X11" t="n">
-        <v>282.2766256019873</v>
+        <v>282.2766256019872</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.7834635795719</v>
+        <v>298.7834635795717</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.3775051054556</v>
+        <v>92.37750510545546</v>
       </c>
       <c r="C13" t="n">
-        <v>79.79234602214613</v>
+        <v>79.79234602214599</v>
       </c>
       <c r="D13" t="n">
-        <v>61.16099794173066</v>
+        <v>61.16099794173051</v>
       </c>
       <c r="E13" t="n">
-        <v>58.97948757008747</v>
+        <v>58.9794875700907</v>
       </c>
       <c r="F13" t="n">
-        <v>57.96657294644955</v>
+        <v>57.9665729464494</v>
       </c>
       <c r="G13" t="n">
-        <v>79.46630147808875</v>
+        <v>79.46630147808861</v>
       </c>
       <c r="H13" t="n">
-        <v>65.25762159275087</v>
+        <v>65.25762159275072</v>
       </c>
       <c r="I13" t="n">
-        <v>35.81208280293519</v>
+        <v>35.81208280293514</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.71870659130962</v>
+        <v>41.71870659130948</v>
       </c>
       <c r="S13" t="n">
-        <v>117.911406823637</v>
+        <v>117.9114068236368</v>
       </c>
       <c r="T13" t="n">
-        <v>135.918429644277</v>
+        <v>135.9184296442768</v>
       </c>
       <c r="U13" t="n">
-        <v>198.8061795816153</v>
+        <v>198.8061795816151</v>
       </c>
       <c r="V13" t="n">
-        <v>164.6831682473463</v>
+        <v>164.6831682473461</v>
       </c>
       <c r="W13" t="n">
-        <v>199.0685232601093</v>
+        <v>199.0685232601091</v>
       </c>
       <c r="X13" t="n">
-        <v>138.2551803125555</v>
+        <v>138.2551803125553</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.1301782756131</v>
+        <v>131.1301782756129</v>
       </c>
     </row>
     <row r="14">
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.19841205165663</v>
+        <v>67.19841205165844</v>
       </c>
       <c r="T14" t="n">
         <v>125.1973880384843</v>
       </c>
       <c r="U14" t="n">
-        <v>163.7003111458189</v>
+        <v>163.7003111458187</v>
       </c>
       <c r="V14" t="n">
         <v>240.2977833936532</v>
@@ -1779,13 +1779,13 @@
         <v>57.96657294644955</v>
       </c>
       <c r="G16" t="n">
-        <v>79.46630147808874</v>
+        <v>79.46630147808875</v>
       </c>
       <c r="H16" t="n">
-        <v>65.25762159275085</v>
+        <v>65.25762159275087</v>
       </c>
       <c r="I16" t="n">
-        <v>35.81208280293528</v>
+        <v>35.81208280293529</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.71870659131024</v>
+        <v>41.71870659130957</v>
       </c>
       <c r="S16" t="n">
-        <v>117.9114068236369</v>
+        <v>117.911406823637</v>
       </c>
       <c r="T16" t="n">
         <v>135.918429644277</v>
@@ -1900,7 +1900,7 @@
         <v>125.1973880384843</v>
       </c>
       <c r="U17" t="n">
-        <v>163.7003111458183</v>
+        <v>163.7003111458201</v>
       </c>
       <c r="V17" t="n">
         <v>240.2977833936532</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.71870659130935</v>
+        <v>41.7187065913096</v>
       </c>
       <c r="S19" t="n">
-        <v>117.9114068236369</v>
+        <v>117.9114068236367</v>
       </c>
       <c r="T19" t="n">
         <v>135.918429644277</v>
       </c>
       <c r="U19" t="n">
-        <v>198.8061795816153</v>
+        <v>198.8061795816157</v>
       </c>
       <c r="V19" t="n">
         <v>164.6831682473463</v>
@@ -2134,7 +2134,7 @@
         <v>67.19841205165847</v>
       </c>
       <c r="T20" t="n">
-        <v>125.1973880384831</v>
+        <v>125.1973880384843</v>
       </c>
       <c r="U20" t="n">
         <v>163.7003111458189</v>
@@ -2146,7 +2146,7 @@
         <v>261.7864936409313</v>
       </c>
       <c r="X20" t="n">
-        <v>282.2766256019873</v>
+        <v>282.2766256019876</v>
       </c>
       <c r="Y20" t="n">
         <v>298.7834635795718</v>
@@ -2247,7 +2247,7 @@
         <v>61.16099794173064</v>
       </c>
       <c r="E22" t="n">
-        <v>58.97948757008766</v>
+        <v>58.97948757008746</v>
       </c>
       <c r="F22" t="n">
         <v>57.96657294644953</v>
@@ -2259,7 +2259,7 @@
         <v>65.25762159275085</v>
       </c>
       <c r="I22" t="n">
-        <v>35.81208280293527</v>
+        <v>35.81208280293549</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>227.5864089987339</v>
       </c>
       <c r="I23" t="n">
-        <v>31.04156581740737</v>
+        <v>31.04156581740861</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>67.19841205165847</v>
+        <v>67.19841205165889</v>
       </c>
       <c r="T23" t="n">
         <v>125.1973880384843</v>
@@ -2496,7 +2496,7 @@
         <v>65.25762159275085</v>
       </c>
       <c r="I25" t="n">
-        <v>35.81208280293527</v>
+        <v>35.81208280293549</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.71870659130957</v>
+        <v>41.7187065913096</v>
       </c>
       <c r="S25" t="n">
         <v>117.9114068236369</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.7318522515274</v>
+        <v>302.7318522515275</v>
       </c>
       <c r="C26" t="n">
         <v>285.2709023590544</v>
       </c>
       <c r="D26" t="n">
-        <v>274.6810522087298</v>
+        <v>274.6810522087299</v>
       </c>
       <c r="E26" t="n">
-        <v>301.9283806603086</v>
+        <v>301.9283806603087</v>
       </c>
       <c r="F26" t="n">
         <v>326.8740563297583</v>
       </c>
       <c r="G26" t="n">
-        <v>332.9149145339836</v>
+        <v>332.9149145339837</v>
       </c>
       <c r="H26" t="n">
-        <v>235.0388946632624</v>
+        <v>235.0388946632625</v>
       </c>
       <c r="I26" t="n">
-        <v>38.49405148193713</v>
+        <v>38.49405148193733</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>74.65089771618703</v>
+        <v>74.65089771618705</v>
       </c>
       <c r="T26" t="n">
         <v>132.6498737030129</v>
@@ -2614,16 +2614,16 @@
         <v>171.1527968103475</v>
       </c>
       <c r="V26" t="n">
-        <v>247.7502690581817</v>
+        <v>247.7502690581818</v>
       </c>
       <c r="W26" t="n">
-        <v>269.2389793054598</v>
+        <v>269.2389793054599</v>
       </c>
       <c r="X26" t="n">
         <v>289.7291112665159</v>
       </c>
       <c r="Y26" t="n">
-        <v>306.2359492441004</v>
+        <v>306.2359492441005</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.82999076998415</v>
+        <v>99.82999076998418</v>
       </c>
       <c r="C28" t="n">
-        <v>87.24483168667469</v>
+        <v>87.24483168667471</v>
       </c>
       <c r="D28" t="n">
-        <v>68.61348360625921</v>
+        <v>68.61348360625924</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>66.43197323461605</v>
       </c>
       <c r="F28" t="n">
-        <v>65.4190586109781</v>
+        <v>65.41905861097813</v>
       </c>
       <c r="G28" t="n">
-        <v>86.9187871426173</v>
+        <v>86.91878714261733</v>
       </c>
       <c r="H28" t="n">
-        <v>72.71010725727942</v>
+        <v>72.71010725727945</v>
       </c>
       <c r="I28" t="n">
-        <v>43.26456846746384</v>
+        <v>43.26456846746387</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>49.17119225583817</v>
+        <v>49.1711922558382</v>
       </c>
       <c r="S28" t="n">
         <v>125.3638924881655</v>
       </c>
       <c r="T28" t="n">
-        <v>143.3709153088055</v>
+        <v>143.3709153088056</v>
       </c>
       <c r="U28" t="n">
-        <v>206.2586652461438</v>
+        <v>28.58544501525025</v>
       </c>
       <c r="V28" t="n">
-        <v>172.1356539118748</v>
+        <v>172.1356539118749</v>
       </c>
       <c r="W28" t="n">
-        <v>206.5210089246378</v>
+        <v>206.5210089246379</v>
       </c>
       <c r="X28" t="n">
         <v>145.707665977084</v>
       </c>
       <c r="Y28" t="n">
-        <v>27.34141694386497</v>
+        <v>138.5826639401417</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>235.0388946632624</v>
       </c>
       <c r="I29" t="n">
-        <v>38.49405148193715</v>
+        <v>38.49405148193716</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>74.650897716187</v>
+        <v>74.65089771618699</v>
       </c>
       <c r="T29" t="n">
         <v>132.6498737030128</v>
@@ -2952,13 +2952,13 @@
         <v>99.82999076998412</v>
       </c>
       <c r="C31" t="n">
-        <v>87.24483168667466</v>
+        <v>78.20007241141212</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>68.61348360625918</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6368050774470169</v>
+        <v>66.431973234616</v>
       </c>
       <c r="F31" t="n">
         <v>65.41905861097807</v>
@@ -3000,7 +3000,7 @@
         <v>49.17119225583814</v>
       </c>
       <c r="S31" t="n">
-        <v>125.3638924881655</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>143.3709153088055</v>
@@ -3031,7 +3031,7 @@
         <v>295.2793665869989</v>
       </c>
       <c r="C32" t="n">
-        <v>277.8184166945258</v>
+        <v>277.8184166945259</v>
       </c>
       <c r="D32" t="n">
         <v>267.2285665442013</v>
@@ -3043,13 +3043,13 @@
         <v>319.4215706652298</v>
       </c>
       <c r="G32" t="n">
-        <v>325.462428869455</v>
+        <v>325.4624288694551</v>
       </c>
       <c r="H32" t="n">
-        <v>227.5864089987338</v>
+        <v>227.5864089987339</v>
       </c>
       <c r="I32" t="n">
-        <v>31.04156581740861</v>
+        <v>31.04156581740864</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.19841205165847</v>
+        <v>67.19841205165844</v>
       </c>
       <c r="T32" t="n">
-        <v>125.1973880384845</v>
+        <v>125.1973880384843</v>
       </c>
       <c r="U32" t="n">
-        <v>163.7003111458192</v>
+        <v>163.7003111458183</v>
       </c>
       <c r="V32" t="n">
         <v>240.2977833936532</v>
@@ -3097,7 +3097,7 @@
         <v>282.2766256019873</v>
       </c>
       <c r="Y32" t="n">
-        <v>298.7834635795718</v>
+        <v>298.7834635795719</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>92.37750510545558</v>
+        <v>92.37750510545561</v>
       </c>
       <c r="C34" t="n">
-        <v>79.79234602214612</v>
+        <v>79.79234602214615</v>
       </c>
       <c r="D34" t="n">
-        <v>61.16099794173064</v>
+        <v>61.16099794173067</v>
       </c>
       <c r="E34" t="n">
-        <v>58.97948757008746</v>
+        <v>58.97948757008749</v>
       </c>
       <c r="F34" t="n">
-        <v>57.96657294644953</v>
+        <v>57.96657294644956</v>
       </c>
       <c r="G34" t="n">
-        <v>79.46630147808872</v>
+        <v>79.46630147808877</v>
       </c>
       <c r="H34" t="n">
-        <v>65.25762159275084</v>
+        <v>65.25762159275088</v>
       </c>
       <c r="I34" t="n">
-        <v>35.81208280293527</v>
+        <v>35.81208280293485</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.7187065913098</v>
+        <v>41.71870659130963</v>
       </c>
       <c r="S34" t="n">
-        <v>117.9114068236369</v>
+        <v>117.911406823637</v>
       </c>
       <c r="T34" t="n">
         <v>135.918429644277</v>
@@ -3252,7 +3252,7 @@
         <v>199.0685232601093</v>
       </c>
       <c r="X34" t="n">
-        <v>138.2551803125554</v>
+        <v>138.2551803125555</v>
       </c>
       <c r="Y34" t="n">
         <v>131.1301782756131</v>
@@ -3268,7 +3268,7 @@
         <v>295.2793665869989</v>
       </c>
       <c r="C35" t="n">
-        <v>277.8184166945258</v>
+        <v>277.8184166945259</v>
       </c>
       <c r="D35" t="n">
         <v>267.2285665442013</v>
@@ -3286,7 +3286,7 @@
         <v>227.5864089987339</v>
       </c>
       <c r="I35" t="n">
-        <v>31.04156581740861</v>
+        <v>31.04156581740862</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.19841205165847</v>
+        <v>67.19841205165848</v>
       </c>
       <c r="T35" t="n">
-        <v>125.197388038484</v>
+        <v>125.1973880384845</v>
       </c>
       <c r="U35" t="n">
-        <v>163.7003111458187</v>
+        <v>163.7003111458192</v>
       </c>
       <c r="V35" t="n">
         <v>240.2977833936532</v>
@@ -3334,7 +3334,7 @@
         <v>282.2766256019873</v>
       </c>
       <c r="Y35" t="n">
-        <v>298.7834635795718</v>
+        <v>298.7834635795719</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>92.37750510545558</v>
+        <v>92.3775051054556</v>
       </c>
       <c r="C37" t="n">
-        <v>79.79234602214612</v>
+        <v>79.79234602214613</v>
       </c>
       <c r="D37" t="n">
-        <v>61.16099794173064</v>
+        <v>61.16099794173066</v>
       </c>
       <c r="E37" t="n">
-        <v>58.97948757008746</v>
+        <v>58.97948757008747</v>
       </c>
       <c r="F37" t="n">
-        <v>57.96657294644953</v>
+        <v>57.96657294644955</v>
       </c>
       <c r="G37" t="n">
-        <v>79.46630147808858</v>
+        <v>79.46630147808875</v>
       </c>
       <c r="H37" t="n">
-        <v>65.25762159275085</v>
+        <v>65.25762159275087</v>
       </c>
       <c r="I37" t="n">
-        <v>35.81208280293527</v>
+        <v>35.81208280293529</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.71870659131002</v>
+        <v>41.7187065913098</v>
       </c>
       <c r="S37" t="n">
-        <v>117.9114068236369</v>
+        <v>117.911406823637</v>
       </c>
       <c r="T37" t="n">
         <v>135.918429644277</v>
@@ -3489,7 +3489,7 @@
         <v>199.0685232601093</v>
       </c>
       <c r="X37" t="n">
-        <v>138.2551803125554</v>
+        <v>138.2551803125555</v>
       </c>
       <c r="Y37" t="n">
         <v>131.1301782756131</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.71870659130963</v>
+        <v>41.71870659130935</v>
       </c>
       <c r="S40" t="n">
         <v>117.911406823637</v>
@@ -3742,7 +3742,7 @@
         <v>295.2793665869989</v>
       </c>
       <c r="C41" t="n">
-        <v>277.8184166945258</v>
+        <v>277.8184166945259</v>
       </c>
       <c r="D41" t="n">
         <v>267.2285665442013</v>
@@ -3754,13 +3754,13 @@
         <v>319.4215706652298</v>
       </c>
       <c r="G41" t="n">
-        <v>325.462428869455</v>
+        <v>325.4624288694551</v>
       </c>
       <c r="H41" t="n">
-        <v>227.5864089987338</v>
+        <v>227.5864089987339</v>
       </c>
       <c r="I41" t="n">
-        <v>31.04156581740861</v>
+        <v>31.04156581740864</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.19841205165847</v>
+        <v>67.19841205165849</v>
       </c>
       <c r="T41" t="n">
-        <v>125.1973880384843</v>
+        <v>125.1973880384845</v>
       </c>
       <c r="U41" t="n">
-        <v>163.7003111458196</v>
+        <v>163.7003111458192</v>
       </c>
       <c r="V41" t="n">
         <v>240.2977833936532</v>
@@ -3808,7 +3808,7 @@
         <v>282.2766256019873</v>
       </c>
       <c r="Y41" t="n">
-        <v>298.7834635795718</v>
+        <v>298.7834635795719</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>92.37750510545558</v>
+        <v>92.37750510545561</v>
       </c>
       <c r="C43" t="n">
-        <v>79.79234602214612</v>
+        <v>79.79234602214615</v>
       </c>
       <c r="D43" t="n">
-        <v>61.16099794173064</v>
+        <v>61.16099794173067</v>
       </c>
       <c r="E43" t="n">
-        <v>58.97948757008746</v>
+        <v>58.97948757008749</v>
       </c>
       <c r="F43" t="n">
-        <v>57.96657294644953</v>
+        <v>57.96657294644956</v>
       </c>
       <c r="G43" t="n">
-        <v>79.46630147808874</v>
+        <v>79.46630147808877</v>
       </c>
       <c r="H43" t="n">
-        <v>65.25762159275085</v>
+        <v>65.25762159275041</v>
       </c>
       <c r="I43" t="n">
-        <v>35.81208280293549</v>
+        <v>35.8120828029353</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.7187065913096</v>
+        <v>41.71870659130963</v>
       </c>
       <c r="S43" t="n">
-        <v>117.9114068236369</v>
+        <v>117.911406823637</v>
       </c>
       <c r="T43" t="n">
         <v>135.918429644277</v>
@@ -3963,7 +3963,7 @@
         <v>199.0685232601093</v>
       </c>
       <c r="X43" t="n">
-        <v>138.2551803125554</v>
+        <v>138.2551803125555</v>
       </c>
       <c r="Y43" t="n">
         <v>131.1301782756131</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>295.2793665869989</v>
+        <v>295.2793665869988</v>
       </c>
       <c r="C44" t="n">
-        <v>277.8184166945259</v>
+        <v>277.8184166945258</v>
       </c>
       <c r="D44" t="n">
-        <v>267.2285665442013</v>
+        <v>267.2285665442012</v>
       </c>
       <c r="E44" t="n">
-        <v>294.4758949957801</v>
+        <v>294.47589499578</v>
       </c>
       <c r="F44" t="n">
-        <v>319.4215706652298</v>
+        <v>319.4215706652297</v>
       </c>
       <c r="G44" t="n">
-        <v>325.4624288694551</v>
+        <v>325.462428869455</v>
       </c>
       <c r="H44" t="n">
-        <v>227.5864089987339</v>
+        <v>227.5864089987338</v>
       </c>
       <c r="I44" t="n">
-        <v>31.04156581740846</v>
+        <v>31.04156581740857</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.19841205165849</v>
+        <v>67.19841205165842</v>
       </c>
       <c r="T44" t="n">
         <v>125.1973880384843</v>
       </c>
       <c r="U44" t="n">
-        <v>163.7003111458189</v>
+        <v>163.7003111458196</v>
       </c>
       <c r="V44" t="n">
         <v>240.2977833936532</v>
@@ -4045,7 +4045,7 @@
         <v>282.2766256019873</v>
       </c>
       <c r="Y44" t="n">
-        <v>298.7834635795719</v>
+        <v>298.7834635795718</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>92.37750510545561</v>
+        <v>92.37750510545554</v>
       </c>
       <c r="C46" t="n">
-        <v>79.79234602214615</v>
+        <v>79.79234602214608</v>
       </c>
       <c r="D46" t="n">
-        <v>61.16099794173067</v>
+        <v>61.1609979417306</v>
       </c>
       <c r="E46" t="n">
-        <v>58.97948757008749</v>
+        <v>58.97948757008741</v>
       </c>
       <c r="F46" t="n">
-        <v>57.96657294644956</v>
+        <v>57.96657294644949</v>
       </c>
       <c r="G46" t="n">
-        <v>79.46630147808877</v>
+        <v>79.4663014780887</v>
       </c>
       <c r="H46" t="n">
-        <v>65.25762159275088</v>
+        <v>65.25762159275081</v>
       </c>
       <c r="I46" t="n">
-        <v>35.8120828029353</v>
+        <v>35.81208280293639</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.71870659130912</v>
+        <v>41.71870659130956</v>
       </c>
       <c r="S46" t="n">
-        <v>117.911406823637</v>
+        <v>117.9114068236369</v>
       </c>
       <c r="T46" t="n">
         <v>135.918429644277</v>
       </c>
       <c r="U46" t="n">
-        <v>198.8061795816153</v>
+        <v>198.8061795816152</v>
       </c>
       <c r="V46" t="n">
         <v>164.6831682473463</v>
@@ -4200,10 +4200,10 @@
         <v>199.0685232601093</v>
       </c>
       <c r="X46" t="n">
-        <v>138.2551803125555</v>
+        <v>138.2551803125554</v>
       </c>
       <c r="Y46" t="n">
-        <v>131.1301782756131</v>
+        <v>131.130178275613</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82.58132630618435</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="C2" t="n">
-        <v>82.58132630618435</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="D2" t="n">
-        <v>82.58132630618435</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="E2" t="n">
-        <v>82.58132630618435</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="F2" t="n">
-        <v>75.63582555698088</v>
+        <v>31.05787365877018</v>
       </c>
       <c r="G2" t="n">
-        <v>60.17851493563234</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="H2" t="n">
-        <v>60.17851493563234</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="I2" t="n">
         <v>15.60056303742164</v>
@@ -4333,19 +4333,19 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>47.22142444577459</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L2" t="n">
-        <v>90.91227510121089</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M2" t="n">
-        <v>90.91227510121089</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N2" t="n">
-        <v>90.91227510121089</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O2" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P2" t="n">
         <v>176.5286895169144</v>
@@ -4354,28 +4354,28 @@
         <v>166.4370741486873</v>
       </c>
       <c r="R2" t="n">
+        <v>166.4370741486873</v>
+      </c>
+      <c r="S2" t="n">
+        <v>166.4370741486873</v>
+      </c>
+      <c r="T2" t="n">
         <v>121.8591222504766</v>
       </c>
-      <c r="S2" t="n">
-        <v>82.58132630618435</v>
-      </c>
-      <c r="T2" t="n">
-        <v>82.58132630618435</v>
-      </c>
       <c r="U2" t="n">
-        <v>82.58132630618435</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V2" t="n">
-        <v>82.58132630618435</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="W2" t="n">
         <v>82.58132630618435</v>
       </c>
       <c r="X2" t="n">
-        <v>82.58132630618435</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="Y2" t="n">
-        <v>82.58132630618435</v>
+        <v>38.00337440797365</v>
       </c>
     </row>
     <row r="3">
@@ -4388,22 +4388,22 @@
         <v>131.9507376187037</v>
       </c>
       <c r="C3" t="n">
-        <v>87.37278572049297</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D3" t="n">
-        <v>87.37278572049297</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="E3" t="n">
-        <v>42.79483382228227</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="F3" t="n">
-        <v>42.79483382228227</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="G3" t="n">
-        <v>42.79483382228227</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="H3" t="n">
-        <v>4.284706443124001</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I3" t="n">
         <v>4.284706443124001</v>
@@ -4415,16 +4415,16 @@
         <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>47.22142444577459</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M3" t="n">
-        <v>90.91227510121089</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N3" t="n">
-        <v>90.91227510121089</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O3" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P3" t="n">
         <v>176.5286895169144</v>
@@ -4454,7 +4454,7 @@
         <v>176.5286895169144</v>
       </c>
       <c r="Y3" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.062864280609</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="C4" t="n">
-        <v>138.062864280609</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="D4" t="n">
-        <v>138.062864280609</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="E4" t="n">
-        <v>138.062864280609</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="F4" t="n">
-        <v>138.062864280609</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="G4" t="n">
-        <v>137.2644294849704</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="H4" t="n">
         <v>92.68647758675968</v>
@@ -4506,34 +4506,34 @@
         <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>138.062864280609</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.062864280609</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="R4" t="n">
-        <v>138.062864280609</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="S4" t="n">
-        <v>138.062864280609</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="T4" t="n">
-        <v>138.062864280609</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="U4" t="n">
-        <v>138.062864280609</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="V4" t="n">
-        <v>138.062864280609</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="W4" t="n">
-        <v>138.062864280609</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="X4" t="n">
-        <v>138.062864280609</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.062864280609</v>
+        <v>135.3139342451479</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>104.756466833843</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="C5" t="n">
-        <v>104.756466833843</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="D5" t="n">
-        <v>104.756466833843</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="E5" t="n">
-        <v>104.756466833843</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="F5" t="n">
-        <v>60.17851493563234</v>
+        <v>31.05787365877018</v>
       </c>
       <c r="G5" t="n">
         <v>15.60056303742164</v>
@@ -4576,13 +4576,13 @@
         <v>47.22142444577459</v>
       </c>
       <c r="M5" t="n">
-        <v>47.22142444577459</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N5" t="n">
-        <v>89.14698820604177</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O5" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P5" t="n">
         <v>176.5286895169144</v>
@@ -4594,25 +4594,25 @@
         <v>121.8591222504766</v>
       </c>
       <c r="S5" t="n">
-        <v>104.756466833843</v>
+        <v>82.58132630618435</v>
       </c>
       <c r="T5" t="n">
-        <v>104.756466833843</v>
+        <v>82.58132630618435</v>
       </c>
       <c r="U5" t="n">
-        <v>104.756466833843</v>
+        <v>82.58132630618435</v>
       </c>
       <c r="V5" t="n">
-        <v>104.756466833843</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="W5" t="n">
-        <v>104.756466833843</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="X5" t="n">
-        <v>104.756466833843</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="Y5" t="n">
-        <v>104.756466833843</v>
+        <v>38.00337440797365</v>
       </c>
     </row>
     <row r="6">
@@ -4634,13 +4634,13 @@
         <v>48.8626583413347</v>
       </c>
       <c r="F6" t="n">
-        <v>4.284706443124001</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="G6" t="n">
-        <v>4.284706443124001</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="H6" t="n">
-        <v>4.284706443124001</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I6" t="n">
         <v>4.284706443124001</v>
@@ -4652,16 +4652,16 @@
         <v>3.530573790338288</v>
       </c>
       <c r="L6" t="n">
-        <v>3.530573790338288</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M6" t="n">
-        <v>3.530573790338288</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N6" t="n">
         <v>47.22142444577459</v>
       </c>
       <c r="O6" t="n">
-        <v>90.91227510121089</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P6" t="n">
         <v>132.8378388614781</v>
@@ -4670,10 +4670,10 @@
         <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S6" t="n">
-        <v>138.0185621377561</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="T6" t="n">
         <v>93.44061023954541</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.02500997809875</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="C7" t="n">
-        <v>26.02500997809875</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="D7" t="n">
-        <v>26.02500997809875</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="E7" t="n">
-        <v>26.02500997809875</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="F7" t="n">
-        <v>26.02500997809875</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="G7" t="n">
-        <v>26.02500997809875</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="H7" t="n">
-        <v>26.02500997809875</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="I7" t="n">
-        <v>26.02500997809875</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="J7" t="n">
         <v>26.02500997809875</v>
@@ -4752,25 +4752,25 @@
         <v>90.73598234693722</v>
       </c>
       <c r="S7" t="n">
-        <v>46.15803044872652</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="T7" t="n">
-        <v>26.02500997809875</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="U7" t="n">
-        <v>26.02500997809875</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="V7" t="n">
-        <v>26.02500997809875</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="W7" t="n">
-        <v>26.02500997809875</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="X7" t="n">
-        <v>26.02500997809875</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="Y7" t="n">
-        <v>26.02500997809875</v>
+        <v>90.73598234693722</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>302.6234454028539</v>
+        <v>80.49402957511307</v>
       </c>
       <c r="C8" t="n">
-        <v>302.6234454028539</v>
+        <v>80.49402957511307</v>
       </c>
       <c r="D8" t="n">
-        <v>302.6234454028539</v>
+        <v>80.49402957511307</v>
       </c>
       <c r="E8" t="n">
-        <v>302.6234454028539</v>
+        <v>80.49402957511307</v>
       </c>
       <c r="F8" t="n">
-        <v>208.2633985868723</v>
+        <v>73.5485288259096</v>
       </c>
       <c r="G8" t="n">
-        <v>113.9033517708907</v>
+        <v>19.54330495490892</v>
       </c>
       <c r="H8" t="n">
-        <v>113.9033517708907</v>
+        <v>19.54330495490892</v>
       </c>
       <c r="I8" t="n">
-        <v>19.5433049549091</v>
+        <v>19.54330495490892</v>
       </c>
       <c r="J8" t="n">
-        <v>7.473315707825743</v>
+        <v>7.473315707825565</v>
       </c>
       <c r="K8" t="n">
-        <v>99.95559759216931</v>
+        <v>7.473315707825565</v>
       </c>
       <c r="L8" t="n">
-        <v>192.4378794765129</v>
+        <v>99.04116633054453</v>
       </c>
       <c r="M8" t="n">
-        <v>284.9201613608565</v>
+        <v>99.04116633054453</v>
       </c>
       <c r="N8" t="n">
-        <v>284.9201613608565</v>
+        <v>191.5234482148859</v>
       </c>
       <c r="O8" t="n">
-        <v>373.6657853912872</v>
+        <v>284.0057300992273</v>
       </c>
       <c r="P8" t="n">
-        <v>373.6657853912872</v>
+        <v>373.6657853912782</v>
       </c>
       <c r="Q8" t="n">
-        <v>363.5741700230601</v>
+        <v>363.5741700230512</v>
       </c>
       <c r="R8" t="n">
-        <v>363.5741700230601</v>
+        <v>363.5741700230512</v>
       </c>
       <c r="S8" t="n">
-        <v>363.5741700230601</v>
+        <v>269.2141232070718</v>
       </c>
       <c r="T8" t="n">
-        <v>302.6234454028539</v>
+        <v>174.8540763910924</v>
       </c>
       <c r="U8" t="n">
-        <v>302.6234454028539</v>
+        <v>174.8540763910924</v>
       </c>
       <c r="V8" t="n">
-        <v>302.6234454028539</v>
+        <v>174.8540763910924</v>
       </c>
       <c r="W8" t="n">
-        <v>302.6234454028539</v>
+        <v>80.49402957511307</v>
       </c>
       <c r="X8" t="n">
-        <v>302.6234454028539</v>
+        <v>80.49402957511307</v>
       </c>
       <c r="Y8" t="n">
-        <v>302.6234454028539</v>
+        <v>80.49402957511307</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>196.9475419925747</v>
+        <v>373.6657853912782</v>
       </c>
       <c r="C9" t="n">
-        <v>196.9475419925747</v>
+        <v>373.6657853912782</v>
       </c>
       <c r="D9" t="n">
-        <v>102.5874951765931</v>
+        <v>373.6657853912782</v>
       </c>
       <c r="E9" t="n">
-        <v>102.5874951765931</v>
+        <v>373.6657853912782</v>
       </c>
       <c r="F9" t="n">
-        <v>8.227448360611458</v>
+        <v>287.2471711354135</v>
       </c>
       <c r="G9" t="n">
-        <v>8.227448360611458</v>
+        <v>192.8871243194342</v>
       </c>
       <c r="H9" t="n">
-        <v>8.227448360611458</v>
+        <v>98.52707750345479</v>
       </c>
       <c r="I9" t="n">
-        <v>8.227448360611458</v>
+        <v>8.227448360611278</v>
       </c>
       <c r="J9" t="n">
-        <v>7.473315707825743</v>
+        <v>7.473315707825565</v>
       </c>
       <c r="K9" t="n">
-        <v>99.95559759216931</v>
+        <v>7.473315707825565</v>
       </c>
       <c r="L9" t="n">
-        <v>192.4378794765129</v>
+        <v>99.95559759216692</v>
       </c>
       <c r="M9" t="n">
-        <v>192.4378794765129</v>
+        <v>188.7012216225955</v>
       </c>
       <c r="N9" t="n">
-        <v>281.1835035069436</v>
+        <v>281.1835035069369</v>
       </c>
       <c r="O9" t="n">
-        <v>373.6657853912872</v>
+        <v>373.6657853912782</v>
       </c>
       <c r="P9" t="n">
-        <v>373.6657853912872</v>
+        <v>373.6657853912782</v>
       </c>
       <c r="Q9" t="n">
-        <v>373.6657853912872</v>
+        <v>373.6657853912782</v>
       </c>
       <c r="R9" t="n">
-        <v>279.3057385753056</v>
+        <v>373.6657853912782</v>
       </c>
       <c r="S9" t="n">
-        <v>279.3057385753056</v>
+        <v>373.6657853912782</v>
       </c>
       <c r="T9" t="n">
-        <v>279.3057385753056</v>
+        <v>373.6657853912782</v>
       </c>
       <c r="U9" t="n">
-        <v>196.9475419925747</v>
+        <v>373.6657853912782</v>
       </c>
       <c r="V9" t="n">
-        <v>196.9475419925747</v>
+        <v>373.6657853912782</v>
       </c>
       <c r="W9" t="n">
-        <v>196.9475419925747</v>
+        <v>373.6657853912782</v>
       </c>
       <c r="X9" t="n">
-        <v>196.9475419925747</v>
+        <v>373.6657853912782</v>
       </c>
       <c r="Y9" t="n">
-        <v>196.9475419925747</v>
+        <v>373.6657853912782</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>124.2699540336395</v>
+        <v>44.89662934665583</v>
       </c>
       <c r="C10" t="n">
-        <v>124.2699540336395</v>
+        <v>44.89662934665583</v>
       </c>
       <c r="D10" t="n">
-        <v>124.2699540336395</v>
+        <v>44.89662934665583</v>
       </c>
       <c r="E10" t="n">
-        <v>124.2699540336395</v>
+        <v>44.89662934665583</v>
       </c>
       <c r="F10" t="n">
-        <v>124.2699540336395</v>
+        <v>44.89662934665583</v>
       </c>
       <c r="G10" t="n">
-        <v>124.2699540336395</v>
+        <v>44.89662934665583</v>
       </c>
       <c r="H10" t="n">
-        <v>124.2699540336395</v>
+        <v>44.89662934665583</v>
       </c>
       <c r="I10" t="n">
-        <v>124.2699540336395</v>
+        <v>44.89662934665583</v>
       </c>
       <c r="J10" t="n">
-        <v>29.9677518955862</v>
+        <v>29.96775189558603</v>
       </c>
       <c r="K10" t="n">
-        <v>7.473315707825743</v>
+        <v>7.473315707825565</v>
       </c>
       <c r="L10" t="n">
-        <v>34.78744071553872</v>
+        <v>34.78744071553854</v>
       </c>
       <c r="M10" t="n">
-        <v>73.9754789077609</v>
+        <v>73.97547890776073</v>
       </c>
       <c r="N10" t="n">
-        <v>117.6663295631972</v>
+        <v>117.666329563197</v>
       </c>
       <c r="O10" t="n">
-        <v>142.0056061980965</v>
+        <v>142.0056061980963</v>
       </c>
       <c r="P10" t="n">
-        <v>139.2566761626354</v>
+        <v>139.2566761626352</v>
       </c>
       <c r="Q10" t="n">
-        <v>124.2699540336395</v>
+        <v>139.2566761626352</v>
       </c>
       <c r="R10" t="n">
-        <v>124.2699540336395</v>
+        <v>139.2566761626352</v>
       </c>
       <c r="S10" t="n">
-        <v>124.2699540336395</v>
+        <v>139.2566761626352</v>
       </c>
       <c r="T10" t="n">
-        <v>124.2699540336395</v>
+        <v>139.2566761626352</v>
       </c>
       <c r="U10" t="n">
-        <v>124.2699540336395</v>
+        <v>139.2566761626352</v>
       </c>
       <c r="V10" t="n">
-        <v>124.2699540336395</v>
+        <v>139.2566761626352</v>
       </c>
       <c r="W10" t="n">
-        <v>124.2699540336395</v>
+        <v>139.2566761626352</v>
       </c>
       <c r="X10" t="n">
-        <v>124.2699540336395</v>
+        <v>139.2566761626352</v>
       </c>
       <c r="Y10" t="n">
-        <v>124.2699540336395</v>
+        <v>139.2566761626352</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1832.32864302836</v>
+        <v>1832.328643028361</v>
       </c>
       <c r="C11" t="n">
-        <v>1551.703979700556</v>
+        <v>1551.703979700557</v>
       </c>
       <c r="D11" t="n">
-        <v>1281.776134706413</v>
+        <v>1281.776134706414</v>
       </c>
       <c r="E11" t="n">
-        <v>984.3257357207769</v>
+        <v>984.3257357207781</v>
       </c>
       <c r="F11" t="n">
-        <v>661.6776845437771</v>
+        <v>661.6776845437785</v>
       </c>
       <c r="G11" t="n">
-        <v>332.9277563928123</v>
+        <v>332.9277563928139</v>
       </c>
       <c r="H11" t="n">
-        <v>103.0424947779296</v>
+        <v>103.0424947779314</v>
       </c>
       <c r="I11" t="n">
         <v>71.68737779065013</v>
@@ -5068,10 +5068,10 @@
         <v>3584.368889532506</v>
       </c>
       <c r="S11" t="n">
-        <v>3516.491705641942</v>
+        <v>3516.491705641943</v>
       </c>
       <c r="T11" t="n">
-        <v>3390.029697522261</v>
+        <v>3390.029697522262</v>
       </c>
       <c r="U11" t="n">
         <v>3224.675847880019</v>
@@ -5083,10 +5083,10 @@
         <v>2717.52001249155</v>
       </c>
       <c r="X11" t="n">
-        <v>2432.392107843078</v>
+        <v>2432.392107843079</v>
       </c>
       <c r="Y11" t="n">
-        <v>2130.590629479874</v>
+        <v>2130.590629479875</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>71.68737779065013</v>
       </c>
       <c r="J12" t="n">
-        <v>190.3466296475458</v>
+        <v>71.68737779065013</v>
       </c>
       <c r="K12" t="n">
-        <v>519.7750339533557</v>
+        <v>139.2951974540071</v>
       </c>
       <c r="L12" t="n">
-        <v>1024.136573819474</v>
+        <v>451.4423011713029</v>
       </c>
       <c r="M12" t="n">
-        <v>1203.633910174079</v>
+        <v>1091.987650638408</v>
       </c>
       <c r="N12" t="n">
-        <v>1449.915201937652</v>
+        <v>1765.19334289119</v>
       </c>
       <c r="O12" t="n">
-        <v>1999.351210690375</v>
+        <v>2314.629351643913</v>
       </c>
       <c r="P12" t="n">
         <v>2423.318979171212</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>514.5514286534669</v>
+        <v>514.5514286534694</v>
       </c>
       <c r="C13" t="n">
-        <v>433.9530993381678</v>
+        <v>433.9530993381704</v>
       </c>
       <c r="D13" t="n">
-        <v>372.1743135384399</v>
+        <v>372.1743135384426</v>
       </c>
       <c r="E13" t="n">
-        <v>312.5990735686545</v>
+        <v>312.599073568654</v>
       </c>
       <c r="F13" t="n">
-        <v>254.046979683352</v>
+        <v>254.0469796833516</v>
       </c>
       <c r="G13" t="n">
-        <v>173.7779882913431</v>
+        <v>173.7779882913429</v>
       </c>
       <c r="H13" t="n">
-        <v>107.861198803716</v>
+        <v>107.8611988037159</v>
       </c>
       <c r="I13" t="n">
         <v>71.68737779065013</v>
       </c>
       <c r="J13" t="n">
-        <v>140.7484246534157</v>
+        <v>140.7484246534158</v>
       </c>
       <c r="K13" t="n">
-        <v>328.3762845747424</v>
+        <v>328.3762845747426</v>
       </c>
       <c r="L13" t="n">
-        <v>599.7892098012776</v>
+        <v>599.789209801278</v>
       </c>
       <c r="M13" t="n">
-        <v>891.6387408462324</v>
+        <v>891.638740846233</v>
       </c>
       <c r="N13" t="n">
         <v>1184.042036008054</v>
       </c>
       <c r="O13" t="n">
-        <v>1444.716861722369</v>
+        <v>1444.71686172237</v>
       </c>
       <c r="P13" t="n">
-        <v>1656.744368646702</v>
+        <v>1656.744368646703</v>
       </c>
       <c r="Q13" t="n">
-        <v>1746.742618392779</v>
+        <v>1746.74261839278</v>
       </c>
       <c r="R13" t="n">
-        <v>1704.602510724789</v>
+        <v>1704.60251072479</v>
       </c>
       <c r="S13" t="n">
-        <v>1585.500079589802</v>
+        <v>1585.500079589803</v>
       </c>
       <c r="T13" t="n">
-        <v>1448.208736514775</v>
+        <v>1448.208736514776</v>
       </c>
       <c r="U13" t="n">
-        <v>1247.394413705063</v>
+        <v>1247.394413705064</v>
       </c>
       <c r="V13" t="n">
-        <v>1081.047779111784</v>
+        <v>1081.047779111785</v>
       </c>
       <c r="W13" t="n">
-        <v>879.9684626874308</v>
+        <v>879.9684626874326</v>
       </c>
       <c r="X13" t="n">
-        <v>740.3167654020212</v>
+        <v>740.3167654020233</v>
       </c>
       <c r="Y13" t="n">
-        <v>607.8620398710989</v>
+        <v>607.8620398711012</v>
       </c>
     </row>
     <row r="14">
@@ -5269,46 +5269,46 @@
         <v>661.6776845437792</v>
       </c>
       <c r="G14" t="n">
-        <v>332.9277563928143</v>
+        <v>332.9277563928144</v>
       </c>
       <c r="H14" t="n">
         <v>103.0424947779316</v>
       </c>
       <c r="I14" t="n">
-        <v>71.68737779065013</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J14" t="n">
-        <v>260.3272768043864</v>
+        <v>260.3272768043865</v>
       </c>
       <c r="K14" t="n">
-        <v>550.8779403618763</v>
+        <v>550.8779403618777</v>
       </c>
       <c r="L14" t="n">
-        <v>1103.691198608075</v>
+        <v>1103.691198608077</v>
       </c>
       <c r="M14" t="n">
-        <v>1735.409009591387</v>
+        <v>1735.409009591388</v>
       </c>
       <c r="N14" t="n">
-        <v>2362.716677651234</v>
+        <v>2362.716677651235</v>
       </c>
       <c r="O14" t="n">
-        <v>2909.877882418311</v>
+        <v>2909.877882418312</v>
       </c>
       <c r="P14" t="n">
-        <v>3339.192928757605</v>
+        <v>3339.192928757607</v>
       </c>
       <c r="Q14" t="n">
-        <v>3584.368889532506</v>
+        <v>3584.368889532508</v>
       </c>
       <c r="R14" t="n">
-        <v>3584.368889532506</v>
+        <v>3584.368889532508</v>
       </c>
       <c r="S14" t="n">
         <v>3516.491705641944</v>
       </c>
       <c r="T14" t="n">
-        <v>3390.029697522263</v>
+        <v>3390.029697522262</v>
       </c>
       <c r="U14" t="n">
         <v>3224.675847880021</v>
@@ -5351,31 +5351,31 @@
         <v>218.5082126555291</v>
       </c>
       <c r="H15" t="n">
-        <v>117.5922348003336</v>
+        <v>117.5922348003337</v>
       </c>
       <c r="I15" t="n">
-        <v>71.68737779065013</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J15" t="n">
-        <v>190.3466296475458</v>
+        <v>87.44945650031805</v>
       </c>
       <c r="K15" t="n">
-        <v>519.7750339533557</v>
+        <v>155.0572761636751</v>
       </c>
       <c r="L15" t="n">
-        <v>1024.136573819474</v>
+        <v>659.4188160297936</v>
       </c>
       <c r="M15" t="n">
-        <v>1251.258460284988</v>
+        <v>1299.964165496898</v>
       </c>
       <c r="N15" t="n">
-        <v>1449.915201937652</v>
+        <v>1973.169857749681</v>
       </c>
       <c r="O15" t="n">
-        <v>1999.351210690375</v>
+        <v>2522.605866502404</v>
       </c>
       <c r="P15" t="n">
-        <v>2423.318979171212</v>
+        <v>2631.295494029703</v>
       </c>
       <c r="Q15" t="n">
         <v>2654.03243523168</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>514.5514286534669</v>
+        <v>514.551428653467</v>
       </c>
       <c r="C16" t="n">
-        <v>433.9530993381678</v>
+        <v>433.9530993381679</v>
       </c>
       <c r="D16" t="n">
-        <v>372.1743135384398</v>
+        <v>372.17431353844</v>
       </c>
       <c r="E16" t="n">
-        <v>312.5990735686545</v>
+        <v>312.5990735686547</v>
       </c>
       <c r="F16" t="n">
-        <v>254.046979683352</v>
+        <v>254.0469796833521</v>
       </c>
       <c r="G16" t="n">
-        <v>173.7779882913432</v>
+        <v>173.7779882913433</v>
       </c>
       <c r="H16" t="n">
         <v>107.8611988037161</v>
       </c>
       <c r="I16" t="n">
-        <v>71.68737779065013</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J16" t="n">
         <v>140.7484246534157</v>
@@ -5445,10 +5445,10 @@
         <v>599.7892098012776</v>
       </c>
       <c r="M16" t="n">
-        <v>891.6387408462323</v>
+        <v>891.6387408462324</v>
       </c>
       <c r="N16" t="n">
-        <v>1184.042036008053</v>
+        <v>1184.042036008054</v>
       </c>
       <c r="O16" t="n">
         <v>1444.716861722369</v>
@@ -5457,10 +5457,10 @@
         <v>1656.744368646702</v>
       </c>
       <c r="Q16" t="n">
-        <v>1746.742618392778</v>
+        <v>1746.742618392779</v>
       </c>
       <c r="R16" t="n">
-        <v>1704.602510724788</v>
+        <v>1704.602510724789</v>
       </c>
       <c r="S16" t="n">
         <v>1585.500079589802</v>
@@ -5475,13 +5475,13 @@
         <v>1081.047779111784</v>
       </c>
       <c r="W16" t="n">
-        <v>879.9684626874308</v>
+        <v>879.9684626874309</v>
       </c>
       <c r="X16" t="n">
-        <v>740.3167654020212</v>
+        <v>740.3167654020214</v>
       </c>
       <c r="Y16" t="n">
-        <v>607.8620398710989</v>
+        <v>607.862039871099</v>
       </c>
     </row>
     <row r="17">
@@ -5500,52 +5500,52 @@
         <v>1281.776134706415</v>
       </c>
       <c r="E17" t="n">
-        <v>984.3257357207788</v>
+        <v>984.3257357207785</v>
       </c>
       <c r="F17" t="n">
-        <v>661.6776845437789</v>
+        <v>661.6776845437787</v>
       </c>
       <c r="G17" t="n">
-        <v>332.9277563928142</v>
+        <v>332.927756392814</v>
       </c>
       <c r="H17" t="n">
         <v>103.0424947779316</v>
       </c>
       <c r="I17" t="n">
-        <v>71.68737779065013</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J17" t="n">
-        <v>147.4108273418309</v>
+        <v>260.3272768043865</v>
       </c>
       <c r="K17" t="n">
-        <v>550.8779403618763</v>
+        <v>663.7943898244318</v>
       </c>
       <c r="L17" t="n">
-        <v>1103.691198608075</v>
+        <v>1216.607648070631</v>
       </c>
       <c r="M17" t="n">
-        <v>1735.409009591387</v>
+        <v>1848.325459053943</v>
       </c>
       <c r="N17" t="n">
-        <v>2362.716677651234</v>
+        <v>2475.633127113789</v>
       </c>
       <c r="O17" t="n">
-        <v>2909.877882418311</v>
+        <v>3022.794331880867</v>
       </c>
       <c r="P17" t="n">
-        <v>3339.192928757605</v>
+        <v>3339.192928757607</v>
       </c>
       <c r="Q17" t="n">
-        <v>3584.368889532506</v>
+        <v>3584.368889532508</v>
       </c>
       <c r="R17" t="n">
-        <v>3584.368889532506</v>
+        <v>3584.368889532508</v>
       </c>
       <c r="S17" t="n">
-        <v>3516.491705641942</v>
+        <v>3516.491705641944</v>
       </c>
       <c r="T17" t="n">
-        <v>3390.029697522261</v>
+        <v>3390.029697522263</v>
       </c>
       <c r="U17" t="n">
         <v>3224.67584788002</v>
@@ -5554,7 +5554,7 @@
         <v>2981.950814149057</v>
       </c>
       <c r="W17" t="n">
-        <v>2717.520012491551</v>
+        <v>2717.52001249155</v>
       </c>
       <c r="X17" t="n">
         <v>2432.392107843079</v>
@@ -5588,31 +5588,31 @@
         <v>218.5082126555291</v>
       </c>
       <c r="H18" t="n">
-        <v>117.5922348003336</v>
+        <v>117.5922348003337</v>
       </c>
       <c r="I18" t="n">
-        <v>71.68737779065013</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J18" t="n">
-        <v>71.68737779065013</v>
+        <v>190.3466296475458</v>
       </c>
       <c r="K18" t="n">
-        <v>139.2951974540071</v>
+        <v>519.7750339533557</v>
       </c>
       <c r="L18" t="n">
-        <v>643.6567373201257</v>
+        <v>1024.136573819474</v>
       </c>
       <c r="M18" t="n">
-        <v>1284.20208678723</v>
+        <v>1203.633910174079</v>
       </c>
       <c r="N18" t="n">
-        <v>1957.407779040013</v>
+        <v>1839.838898021615</v>
       </c>
       <c r="O18" t="n">
-        <v>2506.843787792736</v>
+        <v>1999.351210690375</v>
       </c>
       <c r="P18" t="n">
-        <v>2631.295494029703</v>
+        <v>2423.318979171212</v>
       </c>
       <c r="Q18" t="n">
         <v>2654.03243523168</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>514.5514286534674</v>
+        <v>514.5514286534672</v>
       </c>
       <c r="C19" t="n">
-        <v>433.9530993381682</v>
+        <v>433.953099338168</v>
       </c>
       <c r="D19" t="n">
-        <v>372.1743135384403</v>
+        <v>372.1743135384401</v>
       </c>
       <c r="E19" t="n">
-        <v>312.599073568655</v>
+        <v>312.5990735686548</v>
       </c>
       <c r="F19" t="n">
-        <v>254.0469796833524</v>
+        <v>254.0469796833522</v>
       </c>
       <c r="G19" t="n">
-        <v>173.7779882913431</v>
+        <v>173.7779882913432</v>
       </c>
       <c r="H19" t="n">
         <v>107.8611988037161</v>
       </c>
       <c r="I19" t="n">
-        <v>71.68737779065013</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J19" t="n">
-        <v>140.7484246534157</v>
+        <v>140.7484246534158</v>
       </c>
       <c r="K19" t="n">
-        <v>328.3762845747424</v>
+        <v>328.3762845747425</v>
       </c>
       <c r="L19" t="n">
-        <v>599.7892098012776</v>
+        <v>599.7892098012777</v>
       </c>
       <c r="M19" t="n">
-        <v>891.6387408462324</v>
+        <v>891.6387408462326</v>
       </c>
       <c r="N19" t="n">
         <v>1184.042036008054</v>
       </c>
       <c r="O19" t="n">
-        <v>1444.716861722369</v>
+        <v>1444.71686172237</v>
       </c>
       <c r="P19" t="n">
         <v>1656.744368646702</v>
@@ -5703,7 +5703,7 @@
         <v>1585.500079589803</v>
       </c>
       <c r="T19" t="n">
-        <v>1448.208736514775</v>
+        <v>1448.208736514776</v>
       </c>
       <c r="U19" t="n">
         <v>1247.394413705063</v>
@@ -5712,13 +5712,13 @@
         <v>1081.047779111784</v>
       </c>
       <c r="W19" t="n">
-        <v>879.9684626874312</v>
+        <v>879.9684626874309</v>
       </c>
       <c r="X19" t="n">
-        <v>740.3167654020216</v>
+        <v>740.3167654020214</v>
       </c>
       <c r="Y19" t="n">
-        <v>607.8620398710993</v>
+        <v>607.8620398710991</v>
       </c>
     </row>
     <row r="20">
@@ -5737,10 +5737,10 @@
         <v>1281.776134706415</v>
       </c>
       <c r="E20" t="n">
-        <v>984.3257357207788</v>
+        <v>984.325735720779</v>
       </c>
       <c r="F20" t="n">
-        <v>661.677684543779</v>
+        <v>661.6776845437792</v>
       </c>
       <c r="G20" t="n">
         <v>332.9277563928143</v>
@@ -5749,10 +5749,10 @@
         <v>103.0424947779316</v>
       </c>
       <c r="I20" t="n">
-        <v>71.68737779065013</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J20" t="n">
-        <v>260.3272768043864</v>
+        <v>260.3272768043865</v>
       </c>
       <c r="K20" t="n">
         <v>663.7943898244318</v>
@@ -5761,34 +5761,34 @@
         <v>1216.607648070631</v>
       </c>
       <c r="M20" t="n">
-        <v>1735.409009591387</v>
+        <v>1848.325459053943</v>
       </c>
       <c r="N20" t="n">
-        <v>2362.716677651234</v>
+        <v>2475.633127113789</v>
       </c>
       <c r="O20" t="n">
-        <v>2909.877882418311</v>
+        <v>3022.794331880867</v>
       </c>
       <c r="P20" t="n">
-        <v>3339.192928757605</v>
+        <v>3452.109378220161</v>
       </c>
       <c r="Q20" t="n">
-        <v>3584.368889532506</v>
+        <v>3584.368889532508</v>
       </c>
       <c r="R20" t="n">
-        <v>3584.368889532506</v>
+        <v>3584.368889532508</v>
       </c>
       <c r="S20" t="n">
-        <v>3516.491705641942</v>
+        <v>3516.491705641944</v>
       </c>
       <c r="T20" t="n">
-        <v>3390.029697522262</v>
+        <v>3390.029697522263</v>
       </c>
       <c r="U20" t="n">
-        <v>3224.675847880021</v>
+        <v>3224.675847880022</v>
       </c>
       <c r="V20" t="n">
-        <v>2981.950814149058</v>
+        <v>2981.950814149059</v>
       </c>
       <c r="W20" t="n">
         <v>2717.520012491552</v>
@@ -5825,28 +5825,28 @@
         <v>218.5082126555291</v>
       </c>
       <c r="H21" t="n">
-        <v>117.5922348003336</v>
+        <v>117.5922348003337</v>
       </c>
       <c r="I21" t="n">
-        <v>71.68737779065013</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J21" t="n">
         <v>190.3466296475458</v>
       </c>
       <c r="K21" t="n">
-        <v>257.9544493109028</v>
+        <v>314.212703155609</v>
       </c>
       <c r="L21" t="n">
-        <v>395.1840473265967</v>
+        <v>451.4423011713029</v>
       </c>
       <c r="M21" t="n">
-        <v>1035.729396793701</v>
+        <v>1091.987650638408</v>
       </c>
       <c r="N21" t="n">
-        <v>1708.935089046484</v>
+        <v>1765.19334289119</v>
       </c>
       <c r="O21" t="n">
-        <v>2258.371097799207</v>
+        <v>2314.629351643913</v>
       </c>
       <c r="P21" t="n">
         <v>2423.318979171212</v>
@@ -5895,22 +5895,22 @@
         <v>372.1743135384401</v>
       </c>
       <c r="E22" t="n">
-        <v>312.5990735686546</v>
+        <v>312.5990735686548</v>
       </c>
       <c r="F22" t="n">
-        <v>254.046979683352</v>
+        <v>254.0469796833523</v>
       </c>
       <c r="G22" t="n">
-        <v>173.7779882913432</v>
+        <v>173.7779882913434</v>
       </c>
       <c r="H22" t="n">
-        <v>107.8611988037161</v>
+        <v>107.8611988037163</v>
       </c>
       <c r="I22" t="n">
-        <v>71.68737779065013</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J22" t="n">
-        <v>140.7484246534157</v>
+        <v>140.7484246534158</v>
       </c>
       <c r="K22" t="n">
         <v>328.3762845747424</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1832.328643028361</v>
+        <v>1832.328643028362</v>
       </c>
       <c r="C23" t="n">
-        <v>1551.703979700557</v>
+        <v>1551.703979700558</v>
       </c>
       <c r="D23" t="n">
-        <v>1281.776134706414</v>
+        <v>1281.776134706415</v>
       </c>
       <c r="E23" t="n">
-        <v>984.3257357207776</v>
+        <v>984.325735720779</v>
       </c>
       <c r="F23" t="n">
-        <v>661.6776845437778</v>
+        <v>661.6776845437792</v>
       </c>
       <c r="G23" t="n">
-        <v>332.927756392813</v>
+        <v>332.9277563928143</v>
       </c>
       <c r="H23" t="n">
-        <v>103.0424947779303</v>
+        <v>103.0424947779316</v>
       </c>
       <c r="I23" t="n">
-        <v>71.68737779065013</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J23" t="n">
-        <v>147.4108273418309</v>
+        <v>147.4108273418327</v>
       </c>
       <c r="K23" t="n">
-        <v>550.8779403618763</v>
+        <v>550.8779403618781</v>
       </c>
       <c r="L23" t="n">
-        <v>1103.691198608075</v>
+        <v>1103.691198608077</v>
       </c>
       <c r="M23" t="n">
-        <v>1735.409009591387</v>
+        <v>1735.409009591389</v>
       </c>
       <c r="N23" t="n">
-        <v>2362.716677651234</v>
+        <v>2362.716677651235</v>
       </c>
       <c r="O23" t="n">
-        <v>2909.877882418311</v>
+        <v>2909.877882418313</v>
       </c>
       <c r="P23" t="n">
-        <v>3339.192928757605</v>
+        <v>3339.192928757607</v>
       </c>
       <c r="Q23" t="n">
-        <v>3584.368889532506</v>
+        <v>3584.368889532508</v>
       </c>
       <c r="R23" t="n">
-        <v>3584.368889532506</v>
+        <v>3584.368889532508</v>
       </c>
       <c r="S23" t="n">
-        <v>3516.491705641942</v>
+        <v>3516.491705641944</v>
       </c>
       <c r="T23" t="n">
-        <v>3390.029697522261</v>
+        <v>3390.029697522262</v>
       </c>
       <c r="U23" t="n">
-        <v>3224.67584788002</v>
+        <v>3224.675847880021</v>
       </c>
       <c r="V23" t="n">
-        <v>2981.950814149057</v>
+        <v>2981.950814149058</v>
       </c>
       <c r="W23" t="n">
-        <v>2717.52001249155</v>
+        <v>2717.520012491552</v>
       </c>
       <c r="X23" t="n">
-        <v>2432.392107843079</v>
+        <v>2432.39210784308</v>
       </c>
       <c r="Y23" t="n">
-        <v>2130.590629479875</v>
+        <v>2130.590629479876</v>
       </c>
     </row>
     <row r="24">
@@ -6062,16 +6062,16 @@
         <v>218.5082126555291</v>
       </c>
       <c r="H24" t="n">
-        <v>117.5922348003336</v>
+        <v>117.5922348003337</v>
       </c>
       <c r="I24" t="n">
-        <v>71.68737779065013</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J24" t="n">
-        <v>71.68737779065013</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="K24" t="n">
-        <v>139.2951974540071</v>
+        <v>139.2951974540072</v>
       </c>
       <c r="L24" t="n">
         <v>643.6567373201257</v>
@@ -6086,7 +6086,7 @@
         <v>2506.843787792736</v>
       </c>
       <c r="P24" t="n">
-        <v>2631.295494029703</v>
+        <v>2615.533415320035</v>
       </c>
       <c r="Q24" t="n">
         <v>2654.03243523168</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>514.5514286534669</v>
+        <v>514.5514286534672</v>
       </c>
       <c r="C25" t="n">
-        <v>433.9530993381679</v>
+        <v>433.953099338168</v>
       </c>
       <c r="D25" t="n">
-        <v>372.1743135384399</v>
+        <v>372.1743135384401</v>
       </c>
       <c r="E25" t="n">
-        <v>312.5990735686546</v>
+        <v>312.5990735686548</v>
       </c>
       <c r="F25" t="n">
-        <v>254.046979683352</v>
+        <v>254.0469796833523</v>
       </c>
       <c r="G25" t="n">
-        <v>173.7779882913432</v>
+        <v>173.7779882913434</v>
       </c>
       <c r="H25" t="n">
-        <v>107.8611988037161</v>
+        <v>107.8611988037163</v>
       </c>
       <c r="I25" t="n">
-        <v>71.68737779065013</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J25" t="n">
-        <v>140.7484246534157</v>
+        <v>140.7484246534158</v>
       </c>
       <c r="K25" t="n">
         <v>328.3762845747424</v>
@@ -6186,13 +6186,13 @@
         <v>1081.047779111784</v>
       </c>
       <c r="W25" t="n">
-        <v>879.9684626874308</v>
+        <v>879.9684626874309</v>
       </c>
       <c r="X25" t="n">
-        <v>740.3167654020212</v>
+        <v>740.3167654020214</v>
       </c>
       <c r="Y25" t="n">
-        <v>607.8620398710989</v>
+        <v>607.8620398710991</v>
       </c>
     </row>
     <row r="26">
@@ -6214,28 +6214,28 @@
         <v>1016.741206246764</v>
       </c>
       <c r="F26" t="n">
-        <v>686.5653917722602</v>
+        <v>686.5653917722605</v>
       </c>
       <c r="G26" t="n">
-        <v>350.2877003237919</v>
+        <v>350.2877003237921</v>
       </c>
       <c r="H26" t="n">
-        <v>112.8746754114056</v>
+        <v>112.8746754114058</v>
       </c>
       <c r="I26" t="n">
         <v>73.99179512662064</v>
       </c>
       <c r="J26" t="n">
-        <v>262.631694140357</v>
+        <v>262.6316941403568</v>
       </c>
       <c r="K26" t="n">
-        <v>666.0988071604024</v>
+        <v>666.0988071604023</v>
       </c>
       <c r="L26" t="n">
-        <v>1218.912065406602</v>
+        <v>1218.912065406601</v>
       </c>
       <c r="M26" t="n">
-        <v>1850.629876389914</v>
+        <v>1850.629876389913</v>
       </c>
       <c r="N26" t="n">
         <v>2477.93754444976</v>
@@ -6244,7 +6244,7 @@
         <v>3025.098749216837</v>
       </c>
       <c r="P26" t="n">
-        <v>3454.413795556132</v>
+        <v>3454.413795556131</v>
       </c>
       <c r="Q26" t="n">
         <v>3699.589756331032</v>
@@ -6311,13 +6311,13 @@
         <v>522.0794512893261</v>
       </c>
       <c r="L27" t="n">
-        <v>659.30904930502</v>
+        <v>1026.440991155445</v>
       </c>
       <c r="M27" t="n">
-        <v>838.8063856596248</v>
+        <v>1253.562877620958</v>
       </c>
       <c r="N27" t="n">
-        <v>1512.012077912407</v>
+        <v>1452.219619273623</v>
       </c>
       <c r="O27" t="n">
         <v>2001.655628026346</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>502.4471858046738</v>
+        <v>569.5501890719629</v>
       </c>
       <c r="C28" t="n">
-        <v>414.3210931918711</v>
+        <v>481.4240964591601</v>
       </c>
       <c r="D28" t="n">
-        <v>345.0145440946395</v>
+        <v>412.1175473619286</v>
       </c>
       <c r="E28" t="n">
-        <v>345.0145440946395</v>
+        <v>345.0145440946396</v>
       </c>
       <c r="F28" t="n">
         <v>278.9346869118334</v>
       </c>
       <c r="G28" t="n">
-        <v>191.1379322223209</v>
+        <v>191.137932222321</v>
       </c>
       <c r="H28" t="n">
         <v>117.6933794371902</v>
@@ -6390,7 +6390,7 @@
         <v>315.9247802949463</v>
       </c>
       <c r="L28" t="n">
-        <v>579.9597447135983</v>
+        <v>579.9597447135982</v>
       </c>
       <c r="M28" t="n">
         <v>864.4313149506697</v>
@@ -6417,19 +6417,19 @@
         <v>1368.906177495168</v>
       </c>
       <c r="U28" t="n">
-        <v>1160.564091387952</v>
+        <v>1340.031990611077</v>
       </c>
       <c r="V28" t="n">
-        <v>986.6896934971697</v>
+        <v>1166.157592720294</v>
       </c>
       <c r="W28" t="n">
-        <v>778.0826137753133</v>
+        <v>957.5505129984376</v>
       </c>
       <c r="X28" t="n">
-        <v>630.9031531924002</v>
+        <v>810.3710524155244</v>
       </c>
       <c r="Y28" t="n">
-        <v>603.2855603198093</v>
+        <v>670.3885635870985</v>
       </c>
     </row>
     <row r="29">
@@ -6457,7 +6457,7 @@
         <v>350.2877003237919</v>
       </c>
       <c r="H29" t="n">
-        <v>112.8746754114056</v>
+        <v>112.8746754114057</v>
       </c>
       <c r="I29" t="n">
         <v>73.99179512662064</v>
@@ -6466,13 +6466,13 @@
         <v>262.631694140357</v>
       </c>
       <c r="K29" t="n">
-        <v>666.098807160402</v>
+        <v>666.0988071604024</v>
       </c>
       <c r="L29" t="n">
-        <v>1218.912065406601</v>
+        <v>1218.912065406602</v>
       </c>
       <c r="M29" t="n">
-        <v>1850.629876389913</v>
+        <v>1850.629876389914</v>
       </c>
       <c r="N29" t="n">
         <v>2477.93754444976</v>
@@ -6542,22 +6542,22 @@
         <v>73.99179512662064</v>
       </c>
       <c r="J30" t="n">
-        <v>73.99179512662064</v>
+        <v>192.6510469835163</v>
       </c>
       <c r="K30" t="n">
-        <v>403.4201994324305</v>
+        <v>522.0794512893261</v>
       </c>
       <c r="L30" t="n">
-        <v>540.6497974481244</v>
+        <v>1026.440991155445</v>
       </c>
       <c r="M30" t="n">
-        <v>1181.195146915229</v>
+        <v>1253.562877620958</v>
       </c>
       <c r="N30" t="n">
-        <v>1854.400839168012</v>
+        <v>1452.219619273623</v>
       </c>
       <c r="O30" t="n">
-        <v>2013.913151836772</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P30" t="n">
         <v>2425.623396507182</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>390.0822898488393</v>
+        <v>516.7124842813298</v>
       </c>
       <c r="C31" t="n">
-        <v>301.9561972360366</v>
+        <v>437.7225121485903</v>
       </c>
       <c r="D31" t="n">
-        <v>301.9561972360366</v>
+        <v>368.4159630513588</v>
       </c>
       <c r="E31" t="n">
         <v>301.3129597840699</v>
@@ -6648,25 +6648,25 @@
         <v>1640.35547830019</v>
       </c>
       <c r="S31" t="n">
-        <v>1513.7252838677</v>
+        <v>1640.35547830019</v>
       </c>
       <c r="T31" t="n">
-        <v>1368.906177495169</v>
+        <v>1495.536371927659</v>
       </c>
       <c r="U31" t="n">
-        <v>1160.564091387953</v>
+        <v>1287.194285820443</v>
       </c>
       <c r="V31" t="n">
-        <v>986.6896934971702</v>
+        <v>1113.319887929661</v>
       </c>
       <c r="W31" t="n">
-        <v>778.0826137753138</v>
+        <v>904.7128082078042</v>
       </c>
       <c r="X31" t="n">
-        <v>630.9031531924006</v>
+        <v>757.5333476248911</v>
       </c>
       <c r="Y31" t="n">
-        <v>490.9206643639748</v>
+        <v>617.5508587964653</v>
       </c>
     </row>
     <row r="32">
@@ -6685,52 +6685,52 @@
         <v>1281.776134706415</v>
       </c>
       <c r="E32" t="n">
-        <v>984.3257357207788</v>
+        <v>984.325735720779</v>
       </c>
       <c r="F32" t="n">
-        <v>661.6776845437789</v>
+        <v>661.6776845437792</v>
       </c>
       <c r="G32" t="n">
-        <v>332.9277563928142</v>
+        <v>332.9277563928144</v>
       </c>
       <c r="H32" t="n">
         <v>103.0424947779316</v>
       </c>
       <c r="I32" t="n">
-        <v>71.68737779065016</v>
+        <v>71.68737779065015</v>
       </c>
       <c r="J32" t="n">
-        <v>260.3272768043865</v>
+        <v>147.4108273418318</v>
       </c>
       <c r="K32" t="n">
-        <v>663.7943898244318</v>
+        <v>550.8779403618772</v>
       </c>
       <c r="L32" t="n">
-        <v>1216.607648070631</v>
+        <v>1103.691198608076</v>
       </c>
       <c r="M32" t="n">
-        <v>1848.325459053943</v>
+        <v>1735.409009591388</v>
       </c>
       <c r="N32" t="n">
-        <v>2475.633127113789</v>
+        <v>2362.716677651234</v>
       </c>
       <c r="O32" t="n">
-        <v>3022.794331880867</v>
+        <v>2909.877882418312</v>
       </c>
       <c r="P32" t="n">
-        <v>3339.192928757607</v>
+        <v>3339.192928757606</v>
       </c>
       <c r="Q32" t="n">
-        <v>3584.368889532508</v>
+        <v>3584.368889532507</v>
       </c>
       <c r="R32" t="n">
-        <v>3584.368889532508</v>
+        <v>3584.368889532507</v>
       </c>
       <c r="S32" t="n">
-        <v>3516.491705641944</v>
+        <v>3516.491705641943</v>
       </c>
       <c r="T32" t="n">
-        <v>3390.029697522263</v>
+        <v>3390.029697522262</v>
       </c>
       <c r="U32" t="n">
         <v>3224.675847880021</v>
@@ -6776,7 +6776,7 @@
         <v>117.5922348003337</v>
       </c>
       <c r="I33" t="n">
-        <v>71.68737779065016</v>
+        <v>71.68737779065015</v>
       </c>
       <c r="J33" t="n">
         <v>190.3466296475458</v>
@@ -6785,19 +6785,19 @@
         <v>519.7750339533557</v>
       </c>
       <c r="L33" t="n">
-        <v>1024.136573819474</v>
+        <v>659.4188160297936</v>
       </c>
       <c r="M33" t="n">
-        <v>1251.258460284988</v>
+        <v>1299.964165496898</v>
       </c>
       <c r="N33" t="n">
-        <v>1449.915201937652</v>
+        <v>1973.169857749681</v>
       </c>
       <c r="O33" t="n">
-        <v>1999.351210690375</v>
+        <v>2522.605866502404</v>
       </c>
       <c r="P33" t="n">
-        <v>2423.318979171212</v>
+        <v>2631.295494029703</v>
       </c>
       <c r="Q33" t="n">
         <v>2654.03243523168</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>514.5514286534669</v>
+        <v>514.5514286534667</v>
       </c>
       <c r="C34" t="n">
-        <v>433.9530993381679</v>
+        <v>433.9530993381676</v>
       </c>
       <c r="D34" t="n">
-        <v>372.1743135384399</v>
+        <v>372.1743135384396</v>
       </c>
       <c r="E34" t="n">
-        <v>312.5990735686546</v>
+        <v>312.5990735686543</v>
       </c>
       <c r="F34" t="n">
-        <v>254.046979683352</v>
+        <v>254.0469796833517</v>
       </c>
       <c r="G34" t="n">
-        <v>173.7779882913431</v>
+        <v>173.7779882913428</v>
       </c>
       <c r="H34" t="n">
-        <v>107.8611988037161</v>
+        <v>107.8611988037157</v>
       </c>
       <c r="I34" t="n">
-        <v>71.68737779065016</v>
+        <v>71.68737779065015</v>
       </c>
       <c r="J34" t="n">
         <v>140.7484246534157</v>
@@ -6867,10 +6867,10 @@
         <v>599.7892098012776</v>
       </c>
       <c r="M34" t="n">
-        <v>891.6387408462325</v>
+        <v>891.6387408462324</v>
       </c>
       <c r="N34" t="n">
-        <v>1184.042036008054</v>
+        <v>1184.042036008053</v>
       </c>
       <c r="O34" t="n">
         <v>1444.716861722369</v>
@@ -6879,7 +6879,7 @@
         <v>1656.744368646702</v>
       </c>
       <c r="Q34" t="n">
-        <v>1746.742618392779</v>
+        <v>1746.742618392778</v>
       </c>
       <c r="R34" t="n">
         <v>1704.602510724789</v>
@@ -6894,16 +6894,16 @@
         <v>1247.394413705063</v>
       </c>
       <c r="V34" t="n">
-        <v>1081.047779111784</v>
+        <v>1081.047779111783</v>
       </c>
       <c r="W34" t="n">
-        <v>879.9684626874308</v>
+        <v>879.9684626874306</v>
       </c>
       <c r="X34" t="n">
-        <v>740.3167654020212</v>
+        <v>740.316765402021</v>
       </c>
       <c r="Y34" t="n">
-        <v>607.8620398710989</v>
+        <v>607.8620398710987</v>
       </c>
     </row>
     <row r="35">
@@ -6928,46 +6928,46 @@
         <v>661.6776845437792</v>
       </c>
       <c r="G35" t="n">
-        <v>332.9277563928144</v>
+        <v>332.9277563928143</v>
       </c>
       <c r="H35" t="n">
         <v>103.0424947779316</v>
       </c>
       <c r="I35" t="n">
-        <v>71.68737779065015</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J35" t="n">
-        <v>147.4108273418318</v>
+        <v>260.3272768043865</v>
       </c>
       <c r="K35" t="n">
-        <v>550.8779403618772</v>
+        <v>663.7943898244318</v>
       </c>
       <c r="L35" t="n">
-        <v>1103.691198608076</v>
+        <v>1216.607648070631</v>
       </c>
       <c r="M35" t="n">
-        <v>1735.409009591388</v>
+        <v>1735.409009591389</v>
       </c>
       <c r="N35" t="n">
-        <v>2362.716677651234</v>
+        <v>2362.716677651235</v>
       </c>
       <c r="O35" t="n">
-        <v>2909.877882418312</v>
+        <v>2909.877882418313</v>
       </c>
       <c r="P35" t="n">
-        <v>3339.192928757606</v>
+        <v>3339.192928757607</v>
       </c>
       <c r="Q35" t="n">
-        <v>3584.368889532507</v>
+        <v>3584.368889532508</v>
       </c>
       <c r="R35" t="n">
-        <v>3584.368889532507</v>
+        <v>3584.368889532508</v>
       </c>
       <c r="S35" t="n">
-        <v>3516.491705641943</v>
+        <v>3516.491705641944</v>
       </c>
       <c r="T35" t="n">
-        <v>3390.029697522262</v>
+        <v>3390.029697522263</v>
       </c>
       <c r="U35" t="n">
         <v>3224.675847880021</v>
@@ -7013,19 +7013,19 @@
         <v>117.5922348003337</v>
       </c>
       <c r="I36" t="n">
-        <v>71.68737779065015</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J36" t="n">
-        <v>71.68737779065015</v>
+        <v>190.3466296475458</v>
       </c>
       <c r="K36" t="n">
-        <v>401.11578209646</v>
+        <v>519.7750339533557</v>
       </c>
       <c r="L36" t="n">
-        <v>905.4773219625786</v>
+        <v>1024.136573819474</v>
       </c>
       <c r="M36" t="n">
-        <v>1084.974658317183</v>
+        <v>1203.633910174079</v>
       </c>
       <c r="N36" t="n">
         <v>1449.915201937652</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>514.5514286534667</v>
+        <v>514.551428653467</v>
       </c>
       <c r="C37" t="n">
-        <v>433.9530993381676</v>
+        <v>433.9530993381679</v>
       </c>
       <c r="D37" t="n">
-        <v>372.1743135384397</v>
+        <v>372.17431353844</v>
       </c>
       <c r="E37" t="n">
-        <v>312.5990735686544</v>
+        <v>312.5990735686547</v>
       </c>
       <c r="F37" t="n">
-        <v>254.0469796833518</v>
+        <v>254.0469796833521</v>
       </c>
       <c r="G37" t="n">
-        <v>173.7779882913431</v>
+        <v>173.7779882913433</v>
       </c>
       <c r="H37" t="n">
         <v>107.8611988037161</v>
       </c>
       <c r="I37" t="n">
-        <v>71.68737779065015</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J37" t="n">
         <v>140.7484246534157</v>
@@ -7104,10 +7104,10 @@
         <v>599.7892098012776</v>
       </c>
       <c r="M37" t="n">
-        <v>891.6387408462323</v>
+        <v>891.6387408462324</v>
       </c>
       <c r="N37" t="n">
-        <v>1184.042036008053</v>
+        <v>1184.042036008054</v>
       </c>
       <c r="O37" t="n">
         <v>1444.716861722369</v>
@@ -7116,7 +7116,7 @@
         <v>1656.744368646702</v>
       </c>
       <c r="Q37" t="n">
-        <v>1746.742618392779</v>
+        <v>1746.742618392778</v>
       </c>
       <c r="R37" t="n">
         <v>1704.602510724789</v>
@@ -7131,16 +7131,16 @@
         <v>1247.394413705063</v>
       </c>
       <c r="V37" t="n">
-        <v>1081.047779111783</v>
+        <v>1081.047779111784</v>
       </c>
       <c r="W37" t="n">
-        <v>879.9684626874306</v>
+        <v>879.9684626874309</v>
       </c>
       <c r="X37" t="n">
-        <v>740.316765402021</v>
+        <v>740.3167654020214</v>
       </c>
       <c r="Y37" t="n">
-        <v>607.8620398710987</v>
+        <v>607.862039871099</v>
       </c>
     </row>
     <row r="38">
@@ -7162,10 +7162,10 @@
         <v>984.3257357207788</v>
       </c>
       <c r="F38" t="n">
-        <v>661.677684543779</v>
+        <v>661.6776845437789</v>
       </c>
       <c r="G38" t="n">
-        <v>332.9277563928143</v>
+        <v>332.9277563928142</v>
       </c>
       <c r="H38" t="n">
         <v>103.0424947779316</v>
@@ -7192,7 +7192,7 @@
         <v>3022.794331880867</v>
       </c>
       <c r="P38" t="n">
-        <v>3339.192928757607</v>
+        <v>3452.109378220161</v>
       </c>
       <c r="Q38" t="n">
         <v>3584.368889532508</v>
@@ -7216,7 +7216,7 @@
         <v>2717.520012491552</v>
       </c>
       <c r="X38" t="n">
-        <v>2432.39210784308</v>
+        <v>2432.392107843079</v>
       </c>
       <c r="Y38" t="n">
         <v>2130.590629479876</v>
@@ -7253,25 +7253,25 @@
         <v>71.68737779065016</v>
       </c>
       <c r="J39" t="n">
-        <v>71.68737779065016</v>
+        <v>190.3466296475458</v>
       </c>
       <c r="K39" t="n">
-        <v>139.2951974540072</v>
+        <v>257.9544493109028</v>
       </c>
       <c r="L39" t="n">
-        <v>643.6567373201257</v>
+        <v>762.3159891770213</v>
       </c>
       <c r="M39" t="n">
-        <v>1284.20208678723</v>
+        <v>1402.861338644126</v>
       </c>
       <c r="N39" t="n">
-        <v>1957.407779040013</v>
+        <v>1601.51808029679</v>
       </c>
       <c r="O39" t="n">
-        <v>2506.843787792736</v>
+        <v>2150.954089049513</v>
       </c>
       <c r="P39" t="n">
-        <v>2615.533415320035</v>
+        <v>2423.318979171212</v>
       </c>
       <c r="Q39" t="n">
         <v>2654.03243523168</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>514.5514286534666</v>
+        <v>514.551428653467</v>
       </c>
       <c r="C40" t="n">
-        <v>433.9530993381675</v>
+        <v>433.9530993381679</v>
       </c>
       <c r="D40" t="n">
-        <v>372.1743135384395</v>
+        <v>372.17431353844</v>
       </c>
       <c r="E40" t="n">
-        <v>312.5990735686541</v>
+        <v>312.5990735686547</v>
       </c>
       <c r="F40" t="n">
-        <v>254.0469796833515</v>
+        <v>254.0469796833521</v>
       </c>
       <c r="G40" t="n">
-        <v>173.7779882913432</v>
+        <v>173.7779882913433</v>
       </c>
       <c r="H40" t="n">
         <v>107.8611988037161</v>
@@ -7335,7 +7335,7 @@
         <v>140.7484246534156</v>
       </c>
       <c r="K40" t="n">
-        <v>328.3762845747422</v>
+        <v>328.3762845747423</v>
       </c>
       <c r="L40" t="n">
         <v>599.7892098012775</v>
@@ -7344,7 +7344,7 @@
         <v>891.6387408462323</v>
       </c>
       <c r="N40" t="n">
-        <v>1184.042036008053</v>
+        <v>1184.042036008054</v>
       </c>
       <c r="O40" t="n">
         <v>1444.716861722369</v>
@@ -7353,7 +7353,7 @@
         <v>1656.744368646702</v>
       </c>
       <c r="Q40" t="n">
-        <v>1746.742618392778</v>
+        <v>1746.742618392779</v>
       </c>
       <c r="R40" t="n">
         <v>1704.602510724789</v>
@@ -7365,19 +7365,19 @@
         <v>1448.208736514775</v>
       </c>
       <c r="U40" t="n">
-        <v>1247.394413705062</v>
+        <v>1247.394413705063</v>
       </c>
       <c r="V40" t="n">
-        <v>1081.047779111783</v>
+        <v>1081.047779111784</v>
       </c>
       <c r="W40" t="n">
-        <v>879.9684626874305</v>
+        <v>879.9684626874309</v>
       </c>
       <c r="X40" t="n">
-        <v>740.3167654020209</v>
+        <v>740.3167654020214</v>
       </c>
       <c r="Y40" t="n">
-        <v>607.8620398710985</v>
+        <v>607.862039871099</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>661.6776845437789</v>
       </c>
       <c r="G41" t="n">
-        <v>332.9277563928143</v>
+        <v>332.9277563928142</v>
       </c>
       <c r="H41" t="n">
         <v>103.0424947779316</v>
@@ -7417,16 +7417,16 @@
         <v>663.7943898244318</v>
       </c>
       <c r="L41" t="n">
-        <v>1216.607648070631</v>
+        <v>1103.691198608077</v>
       </c>
       <c r="M41" t="n">
-        <v>1848.325459053943</v>
+        <v>1735.409009591389</v>
       </c>
       <c r="N41" t="n">
-        <v>2475.633127113789</v>
+        <v>2362.716677651235</v>
       </c>
       <c r="O41" t="n">
-        <v>3022.794331880867</v>
+        <v>2909.877882418313</v>
       </c>
       <c r="P41" t="n">
         <v>3339.192928757607</v>
@@ -7450,10 +7450,10 @@
         <v>2981.950814149058</v>
       </c>
       <c r="W41" t="n">
-        <v>2717.520012491551</v>
+        <v>2717.520012491552</v>
       </c>
       <c r="X41" t="n">
-        <v>2432.392107843079</v>
+        <v>2432.39210784308</v>
       </c>
       <c r="Y41" t="n">
         <v>2130.590629479876</v>
@@ -7490,25 +7490,25 @@
         <v>71.68737779065016</v>
       </c>
       <c r="J42" t="n">
-        <v>71.68737779065016</v>
+        <v>190.3466296475458</v>
       </c>
       <c r="K42" t="n">
-        <v>139.2951974540072</v>
+        <v>519.7750339533557</v>
       </c>
       <c r="L42" t="n">
-        <v>643.6567373201257</v>
+        <v>1024.136573819474</v>
       </c>
       <c r="M42" t="n">
-        <v>1284.20208678723</v>
+        <v>1203.633910174079</v>
       </c>
       <c r="N42" t="n">
-        <v>1957.407779040013</v>
+        <v>1449.915201937652</v>
       </c>
       <c r="O42" t="n">
-        <v>2506.843787792736</v>
+        <v>1999.351210690375</v>
       </c>
       <c r="P42" t="n">
-        <v>2631.295494029703</v>
+        <v>2423.318979171212</v>
       </c>
       <c r="Q42" t="n">
         <v>2654.03243523168</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>514.5514286534672</v>
+        <v>514.5514286534667</v>
       </c>
       <c r="C43" t="n">
-        <v>433.953099338168</v>
+        <v>433.9530993381676</v>
       </c>
       <c r="D43" t="n">
-        <v>372.1743135384401</v>
+        <v>372.1743135384396</v>
       </c>
       <c r="E43" t="n">
-        <v>312.5990735686548</v>
+        <v>312.5990735686543</v>
       </c>
       <c r="F43" t="n">
-        <v>254.0469796833523</v>
+        <v>254.0469796833517</v>
       </c>
       <c r="G43" t="n">
-        <v>173.7779882913434</v>
+        <v>173.7779882913428</v>
       </c>
       <c r="H43" t="n">
-        <v>107.8611988037163</v>
+        <v>107.8611988037161</v>
       </c>
       <c r="I43" t="n">
         <v>71.68737779065016</v>
       </c>
       <c r="J43" t="n">
-        <v>140.7484246534158</v>
+        <v>140.7484246534157</v>
       </c>
       <c r="K43" t="n">
         <v>328.3762845747424</v>
@@ -7581,7 +7581,7 @@
         <v>891.6387408462324</v>
       </c>
       <c r="N43" t="n">
-        <v>1184.042036008054</v>
+        <v>1184.042036008053</v>
       </c>
       <c r="O43" t="n">
         <v>1444.716861722369</v>
@@ -7590,7 +7590,7 @@
         <v>1656.744368646702</v>
       </c>
       <c r="Q43" t="n">
-        <v>1746.742618392779</v>
+        <v>1746.742618392778</v>
       </c>
       <c r="R43" t="n">
         <v>1704.602510724789</v>
@@ -7605,16 +7605,16 @@
         <v>1247.394413705063</v>
       </c>
       <c r="V43" t="n">
-        <v>1081.047779111784</v>
+        <v>1081.047779111783</v>
       </c>
       <c r="W43" t="n">
-        <v>879.9684626874309</v>
+        <v>879.9684626874306</v>
       </c>
       <c r="X43" t="n">
-        <v>740.3167654020214</v>
+        <v>740.316765402021</v>
       </c>
       <c r="Y43" t="n">
-        <v>607.8620398710991</v>
+        <v>607.8620398710987</v>
       </c>
     </row>
     <row r="44">
@@ -7633,7 +7633,7 @@
         <v>1281.776134706415</v>
       </c>
       <c r="E44" t="n">
-        <v>984.3257357207788</v>
+        <v>984.3257357207787</v>
       </c>
       <c r="F44" t="n">
         <v>661.6776845437789</v>
@@ -7642,28 +7642,28 @@
         <v>332.9277563928142</v>
       </c>
       <c r="H44" t="n">
-        <v>103.0424947779314</v>
+        <v>103.0424947779316</v>
       </c>
       <c r="I44" t="n">
         <v>71.68737779065016</v>
       </c>
       <c r="J44" t="n">
-        <v>260.3272768043865</v>
+        <v>147.4108273418327</v>
       </c>
       <c r="K44" t="n">
-        <v>663.7943898244318</v>
+        <v>550.8779403618781</v>
       </c>
       <c r="L44" t="n">
-        <v>1216.607648070631</v>
+        <v>1103.691198608077</v>
       </c>
       <c r="M44" t="n">
-        <v>1848.325459053943</v>
+        <v>1735.409009591389</v>
       </c>
       <c r="N44" t="n">
-        <v>2475.633127113789</v>
+        <v>2362.716677651235</v>
       </c>
       <c r="O44" t="n">
-        <v>3022.794331880867</v>
+        <v>2909.877882418313</v>
       </c>
       <c r="P44" t="n">
         <v>3339.192928757607</v>
@@ -7678,7 +7678,7 @@
         <v>3516.491705641944</v>
       </c>
       <c r="T44" t="n">
-        <v>3390.029697522262</v>
+        <v>3390.029697522263</v>
       </c>
       <c r="U44" t="n">
         <v>3224.675847880021</v>
@@ -7687,10 +7687,10 @@
         <v>2981.950814149058</v>
       </c>
       <c r="W44" t="n">
-        <v>2717.520012491552</v>
+        <v>2717.520012491551</v>
       </c>
       <c r="X44" t="n">
-        <v>2432.39210784308</v>
+        <v>2432.392107843079</v>
       </c>
       <c r="Y44" t="n">
         <v>2130.590629479876</v>
@@ -7733,19 +7733,19 @@
         <v>401.11578209646</v>
       </c>
       <c r="L45" t="n">
-        <v>538.3453801121539</v>
+        <v>905.4773219625786</v>
       </c>
       <c r="M45" t="n">
-        <v>1178.890729579259</v>
+        <v>1546.022671429683</v>
       </c>
       <c r="N45" t="n">
-        <v>1852.096421832041</v>
+        <v>1744.679413082348</v>
       </c>
       <c r="O45" t="n">
-        <v>2401.532430584764</v>
+        <v>1999.351210690375</v>
       </c>
       <c r="P45" t="n">
-        <v>2510.222058112063</v>
+        <v>2423.318979171212</v>
       </c>
       <c r="Q45" t="n">
         <v>2654.03243523168</v>
@@ -7782,61 +7782,61 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>514.5514286534672</v>
+        <v>514.5514286534678</v>
       </c>
       <c r="C46" t="n">
-        <v>433.953099338168</v>
+        <v>433.9530993381688</v>
       </c>
       <c r="D46" t="n">
-        <v>372.1743135384401</v>
+        <v>372.1743135384409</v>
       </c>
       <c r="E46" t="n">
-        <v>312.5990735686547</v>
+        <v>312.5990735686556</v>
       </c>
       <c r="F46" t="n">
-        <v>254.0469796833521</v>
+        <v>254.0469796833531</v>
       </c>
       <c r="G46" t="n">
-        <v>173.7779882913433</v>
+        <v>173.7779882913443</v>
       </c>
       <c r="H46" t="n">
-        <v>107.8611988037161</v>
+        <v>107.8611988037172</v>
       </c>
       <c r="I46" t="n">
         <v>71.68737779065016</v>
       </c>
       <c r="J46" t="n">
-        <v>140.7484246534157</v>
+        <v>140.7484246534158</v>
       </c>
       <c r="K46" t="n">
-        <v>328.3762845747424</v>
+        <v>328.3762845747425</v>
       </c>
       <c r="L46" t="n">
-        <v>599.7892098012776</v>
+        <v>599.7892098012778</v>
       </c>
       <c r="M46" t="n">
-        <v>891.6387408462324</v>
+        <v>891.6387408462326</v>
       </c>
       <c r="N46" t="n">
-        <v>1184.042036008053</v>
+        <v>1184.042036008054</v>
       </c>
       <c r="O46" t="n">
-        <v>1444.716861722369</v>
+        <v>1444.71686172237</v>
       </c>
       <c r="P46" t="n">
         <v>1656.744368646702</v>
       </c>
       <c r="Q46" t="n">
-        <v>1746.742618392778</v>
+        <v>1746.742618392779</v>
       </c>
       <c r="R46" t="n">
-        <v>1704.602510724789</v>
+        <v>1704.60251072479</v>
       </c>
       <c r="S46" t="n">
         <v>1585.500079589803</v>
       </c>
       <c r="T46" t="n">
-        <v>1448.208736514775</v>
+        <v>1448.208736514776</v>
       </c>
       <c r="U46" t="n">
         <v>1247.394413705063</v>
@@ -7845,13 +7845,13 @@
         <v>1081.047779111784</v>
       </c>
       <c r="W46" t="n">
-        <v>879.968462687431</v>
+        <v>879.9684626874314</v>
       </c>
       <c r="X46" t="n">
-        <v>740.3167654020215</v>
+        <v>740.3167654020219</v>
       </c>
       <c r="Y46" t="n">
-        <v>607.8620398710991</v>
+        <v>607.8620398710997</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>264.2220234242092</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>279.8985873492159</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O2" t="n">
-        <v>272.4472657249869</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P2" t="n">
-        <v>275.3651681344982</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8063,19 +8063,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>182.6865521591028</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M3" t="n">
         <v>186.2662063012469</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O3" t="n">
-        <v>184.9452987477446</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8224,16 +8224,16 @@
         <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N5" t="n">
-        <v>271.7621178998911</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O5" t="n">
-        <v>274.2303838009153</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P5" t="n">
-        <v>275.3651681344982</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8300,19 +8300,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M6" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4738844625619</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>186.728416823673</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P6" t="n">
-        <v>176.3234617176304</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q6" t="n">
         <v>184.1139464652501</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>313.5062973928024</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>329.1828613178091</v>
+        <v>328.2591933767741</v>
       </c>
       <c r="M8" t="n">
-        <v>323.7626795750945</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>322.8295099444105</v>
       </c>
       <c r="O8" t="n">
-        <v>319.7402558968693</v>
+        <v>323.5146577695063</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>231.2578853221808</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>231.970826127696</v>
+        <v>231.9708261276937</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>231.7760783971987</v>
       </c>
       <c r="N9" t="n">
-        <v>220.9837565585158</v>
+        <v>224.7581584311529</v>
       </c>
       <c r="O9" t="n">
-        <v>236.0126907922662</v>
+        <v>236.012690792264</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8768,25 +8768,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928398</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>176.6843491935372</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>48.10560617263531</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>210.0883929120178</v>
+        <v>210.0883929120191</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>22.15449680785556</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>48.10560617263548</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>55.03959551292677</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9181,7 +9181,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>207.7416885123375</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>6.233205181928398</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>441.967925449365</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>15.92129162592732</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>335.4565138336853</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9421,10 +9421,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>98.2579710007596</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298247</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>56.82651903505678</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>56.82651903505698</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>55.03959551292677</v>
+        <v>55.03959551292857</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9734,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>15.92129162592732</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>15.92129162592738</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,16 +9959,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>48.10560617263522</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>333.4658964092704</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10190,25 +10190,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>6.233205181928398</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263522</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>306.081431457688</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>55.03959551292766</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10366,7 +10366,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>207.7416885123375</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10433,22 +10433,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>2.438569758327276</v>
       </c>
       <c r="M33" t="n">
-        <v>48.10560617263548</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>55.03959551292766</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>335.4565138336872</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>6.233205181928398</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>167.9634363311156</v>
+        <v>48.10560617263531</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10840,13 +10840,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>207.7416885123375</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>98.2579710007596</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298247</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>6.233205181928398</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10913,16 +10913,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>165.3285480751516</v>
       </c>
       <c r="Q39" t="n">
-        <v>15.92129162592738</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>303.6041948913053</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11077,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>207.7416885123371</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>6.233205181928398</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>48.10560617263531</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>15.92129162592732</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>55.03959551292857</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11314,13 +11314,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>207.7416885123371</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298247</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,22 +11381,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>96.12069185784554</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>122.2963999168081</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>66.43197323461602</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>177.6732202308936</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>111.2412469962767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>9.044759275262535</v>
       </c>
       <c r="D31" t="n">
-        <v>68.61348360625918</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>65.79516815716897</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>125.3638924881655</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>675046.9908585338</v>
+        <v>675046.9908585335</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>686042.3446410464</v>
+        <v>686042.3446410465</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>686042.3446410464</v>
+        <v>686042.3446410465</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>686042.3446410464</v>
+        <v>686042.3446410465</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>684886.9878989856</v>
+        <v>684886.9878989855</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>686042.3446410465</v>
+        <v>686042.3446410464</v>
       </c>
     </row>
     <row r="13">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="C2" t="n">
         <v>821041.7698642834</v>
       </c>
       <c r="D2" t="n">
+        <v>821041.7698642835</v>
+      </c>
+      <c r="E2" t="n">
         <v>821041.7698642837</v>
       </c>
-      <c r="E2" t="n">
-        <v>821041.7698642835</v>
-      </c>
       <c r="F2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642836</v>
       </c>
       <c r="G2" t="n">
         <v>821041.7698642834</v>
       </c>
       <c r="H2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642836</v>
       </c>
       <c r="I2" t="n">
-        <v>821041.7698642837</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="J2" t="n">
-        <v>816777.6125787415</v>
+        <v>816777.6125787414</v>
       </c>
       <c r="K2" t="n">
         <v>816777.6125787414</v>
       </c>
       <c r="L2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642837</v>
       </c>
       <c r="M2" t="n">
         <v>821041.7698642833</v>
@@ -26355,7 +26355,7 @@
         <v>821041.7698642836</v>
       </c>
       <c r="P2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642836</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>15309.1740228641</v>
+        <v>15309.17402286341</v>
       </c>
       <c r="E3" t="n">
-        <v>786425.387358157</v>
+        <v>786425.3873581578</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83085.22175771177</v>
+        <v>83085.22175771174</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>11145.05361488174</v>
+        <v>11145.05361488107</v>
       </c>
       <c r="M3" t="n">
-        <v>200030.0140911021</v>
+        <v>200030.0140911027</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>64001.59152956253</v>
+        <v>64001.5915295626</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,22 +26423,22 @@
         <v>386095.5528670329</v>
       </c>
       <c r="D4" t="n">
-        <v>378169.7301196533</v>
+        <v>378169.7301196537</v>
       </c>
       <c r="E4" t="n">
+        <v>159263.0340515219</v>
+      </c>
+      <c r="F4" t="n">
         <v>159263.0340515217</v>
-      </c>
-      <c r="F4" t="n">
-        <v>159263.0340515218</v>
       </c>
       <c r="G4" t="n">
         <v>159263.0340515217</v>
       </c>
       <c r="H4" t="n">
-        <v>159263.0340515218</v>
+        <v>159263.0340515217</v>
       </c>
       <c r="I4" t="n">
-        <v>159263.0340515218</v>
+        <v>159263.0340515217</v>
       </c>
       <c r="J4" t="n">
         <v>153788.3361621245</v>
@@ -26456,10 +26456,10 @@
         <v>159263.0340515217</v>
       </c>
       <c r="O4" t="n">
+        <v>159263.0340515217</v>
+      </c>
+      <c r="P4" t="n">
         <v>159263.0340515218</v>
-      </c>
-      <c r="P4" t="n">
-        <v>159263.0340515217</v>
       </c>
     </row>
     <row r="5">
@@ -26475,31 +26475,31 @@
         <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>39307.31993794756</v>
+        <v>39307.31993794742</v>
       </c>
       <c r="E5" t="n">
         <v>74772.39637346865</v>
       </c>
       <c r="F5" t="n">
-        <v>74772.39637346865</v>
+        <v>74772.39637346867</v>
       </c>
       <c r="G5" t="n">
-        <v>74772.39637346865</v>
+        <v>74772.39637346868</v>
       </c>
       <c r="H5" t="n">
-        <v>74772.39637346865</v>
+        <v>74772.39637346868</v>
       </c>
       <c r="I5" t="n">
-        <v>74772.39637346865</v>
+        <v>74772.39637346868</v>
       </c>
       <c r="J5" t="n">
         <v>75897.230531475</v>
       </c>
       <c r="K5" t="n">
-        <v>75897.23053147498</v>
+        <v>75897.230531475</v>
       </c>
       <c r="L5" t="n">
-        <v>74772.39637346868</v>
+        <v>74772.39637346867</v>
       </c>
       <c r="M5" t="n">
         <v>74772.39637346867</v>
@@ -26508,10 +26508,10 @@
         <v>74772.39637346867</v>
       </c>
       <c r="O5" t="n">
+        <v>74772.39637346867</v>
+      </c>
+      <c r="P5" t="n">
         <v>74772.39637346868</v>
-      </c>
-      <c r="P5" t="n">
-        <v>74772.39637346867</v>
       </c>
     </row>
     <row r="6">
@@ -26521,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>383845.674912349</v>
+        <v>383845.6749123492</v>
       </c>
       <c r="C6" t="n">
         <v>398635.3809165934</v>
       </c>
       <c r="D6" t="n">
-        <v>388255.5457838188</v>
+        <v>388255.5457838189</v>
       </c>
       <c r="E6" t="n">
-        <v>-199419.0479188639</v>
+        <v>-199419.0479188646</v>
       </c>
       <c r="F6" t="n">
-        <v>587006.3394392926</v>
+        <v>587006.3394392934</v>
       </c>
       <c r="G6" t="n">
         <v>587006.3394392929</v>
       </c>
       <c r="H6" t="n">
-        <v>587006.339439293</v>
+        <v>587006.3394392931</v>
       </c>
       <c r="I6" t="n">
-        <v>587006.3394392933</v>
+        <v>587006.3394392929</v>
       </c>
       <c r="J6" t="n">
-        <v>503900.2201952917</v>
+        <v>503996.1637342163</v>
       </c>
       <c r="K6" t="n">
-        <v>586985.4419530034</v>
+        <v>587081.3854919281</v>
       </c>
       <c r="L6" t="n">
-        <v>575861.2858244111</v>
+        <v>575861.2858244122</v>
       </c>
       <c r="M6" t="n">
-        <v>386976.3253481908</v>
+        <v>386976.3253481902</v>
       </c>
       <c r="N6" t="n">
         <v>587006.3394392929</v>
       </c>
       <c r="O6" t="n">
-        <v>523004.7479097306</v>
+        <v>523004.7479097305</v>
       </c>
       <c r="P6" t="n">
         <v>587006.3394392931</v>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="F2" t="n">
         <v>87.4544750764817</v>
@@ -26709,25 +26709,25 @@
         <v>87.45447507648171</v>
       </c>
       <c r="J2" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="K2" t="n">
         <v>80.00198941195318</v>
       </c>
       <c r="L2" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="M2" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="N2" t="n">
         <v>87.45447507648169</v>
       </c>
       <c r="O2" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="P2" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
     </row>
     <row r="3">
@@ -26795,43 +26795,43 @@
         <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>93.41644634782179</v>
+        <v>93.41644634781956</v>
       </c>
       <c r="E4" t="n">
         <v>896.0922223831266</v>
       </c>
       <c r="F4" t="n">
-        <v>896.0922223831266</v>
+        <v>896.0922223831269</v>
       </c>
       <c r="G4" t="n">
-        <v>896.0922223831266</v>
+        <v>896.092222383127</v>
       </c>
       <c r="H4" t="n">
-        <v>896.0922223831266</v>
+        <v>896.092222383127</v>
       </c>
       <c r="I4" t="n">
-        <v>896.0922223831266</v>
+        <v>896.092222383127</v>
       </c>
       <c r="J4" t="n">
         <v>924.8974390827581</v>
       </c>
       <c r="K4" t="n">
-        <v>924.897439082758</v>
+        <v>924.8974390827581</v>
       </c>
       <c r="L4" t="n">
+        <v>896.0922223831268</v>
+      </c>
+      <c r="M4" t="n">
         <v>896.092222383127</v>
-      </c>
-      <c r="M4" t="n">
-        <v>896.0922223831268</v>
       </c>
       <c r="N4" t="n">
         <v>896.092222383127</v>
       </c>
       <c r="O4" t="n">
-        <v>896.0922223831269</v>
+        <v>896.092222383127</v>
       </c>
       <c r="P4" t="n">
-        <v>896.0922223831269</v>
+        <v>896.092222383127</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>80.00198941195313</v>
+        <v>80.00198941195325</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.452485664528552</v>
+        <v>7.452485664528524</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>80.00198941195316</v>
+        <v>80.00198941195325</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>49.28427396859319</v>
+        <v>49.28427396859097</v>
       </c>
       <c r="E4" t="n">
-        <v>802.6757760353048</v>
+        <v>802.6757760353069</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>72.93738907886006</v>
+        <v>72.93738907885961</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>20.47905726896214</v>
+        <v>20.47905726895958</v>
       </c>
       <c r="M4" t="n">
-        <v>802.6757760353046</v>
+        <v>802.6757760353072</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>80.00198941195313</v>
+        <v>80.00198941195325</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>49.28427396859319</v>
+        <v>49.28427396859097</v>
       </c>
       <c r="M4" t="n">
-        <v>802.6757760353048</v>
+        <v>802.6757760353069</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>170.135051601396</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27441,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>310.3559507325637</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>122.4010112706387</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>128.5763266090871</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>109.3200394592721</v>
       </c>
       <c r="E3" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,10 +27475,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>74.11041813112978</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="4">
@@ -27551,10 +27551,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2005289107765</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>118.095000128211</v>
+        <v>120.0259904156352</v>
       </c>
       <c r="I4" t="n">
         <v>111.3183025480297</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>362.7438733624829</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>371.1705651359065</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27666,7 +27666,7 @@
         <v>105.7369455619211</v>
       </c>
       <c r="S5" t="n">
-        <v>192.0884407237781</v>
+        <v>170.135051601396</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27675,7 +27675,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27706,7 +27706,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27715,7 +27715,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S6" t="n">
         <v>133.5581449984711</v>
       </c>
       <c r="T6" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>181.8092097017462</v>
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>101.2888756437027</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27797,7 +27797,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>73.42748985075127</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,10 +27824,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>208.01389916236</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>313.4595993938897</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>321.8862911673133</v>
+        <v>361.8375658828444</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>117.0594432225841</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>115.6036232384258</v>
       </c>
       <c r="T8" t="n">
-        <v>162.7546321901272</v>
+        <v>129.6794032163118</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>255.8245223695935</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27937,22 +27937,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>54.02861921681696</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>51.65276604556209</v>
+        <v>59.51478428007781</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>43.92707081539108</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>18.8189978886769</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>6.741387804821343</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27988,7 +27988,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>144.4067674640713</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>86.41553383411774</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28034,7 +28034,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>78.57959144011367</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>71.32518834398851</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="C11" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="D11" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="E11" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="F11" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="G11" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="H11" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="I11" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="T11" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="U11" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="V11" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="W11" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="X11" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="Y11" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="C13" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="D13" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="E13" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="F13" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="G13" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="H13" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="I13" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="J13" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="K13" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="L13" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="M13" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="N13" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="O13" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="P13" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="Q13" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="R13" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="S13" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="T13" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="U13" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="V13" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="W13" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="X13" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
       <c r="Y13" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648184</v>
       </c>
     </row>
     <row r="14">
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>87.45447507648355</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="T14" t="n">
         <v>87.4544750764817</v>
@@ -28854,7 +28854,7 @@
         <v>87.45447507648171</v>
       </c>
       <c r="T20" t="n">
-        <v>87.45447507648289</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="U20" t="n">
         <v>87.45447507648171</v>
@@ -28866,7 +28866,7 @@
         <v>87.45447507648171</v>
       </c>
       <c r="X20" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764814</v>
       </c>
       <c r="Y20" t="n">
         <v>87.45447507648171</v>
@@ -29058,7 +29058,7 @@
         <v>87.45447507648171</v>
       </c>
       <c r="I23" t="n">
-        <v>87.45447507648296</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648129</v>
       </c>
       <c r="T23" t="n">
         <v>87.45447507648171</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="C26" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="D26" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="E26" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="F26" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="G26" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="H26" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="I26" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="T26" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="U26" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="V26" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="W26" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="X26" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="Y26" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="C28" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="D28" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="E28" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="F28" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="G28" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="H28" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="I28" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="J28" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="K28" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="L28" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="M28" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="N28" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="O28" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="P28" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="Q28" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="R28" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="S28" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="T28" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="U28" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="V28" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="W28" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="X28" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195312</v>
       </c>
     </row>
     <row r="29">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="C32" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="D32" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="E32" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="F32" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="G32" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="H32" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="I32" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="T32" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="U32" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="V32" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="W32" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="X32" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="Y32" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="C34" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="D34" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="E34" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="F34" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="G34" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="H34" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="I34" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="K34" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="L34" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="M34" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="N34" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="O34" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="P34" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="R34" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="S34" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="T34" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="U34" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="V34" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="W34" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="X34" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="Y34" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="C35" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="D35" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="E35" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="F35" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="G35" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="H35" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="I35" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="T35" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="U35" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="V35" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="W35" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="X35" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="Y35" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="C37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="D37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="E37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="F37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="G37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="H37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="I37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="K37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="L37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="M37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="N37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="O37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="P37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="Q37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="R37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="S37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="T37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="U37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="V37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="W37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="X37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="Y37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
     </row>
     <row r="38">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="C41" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="D41" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="E41" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="F41" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="G41" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="H41" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="I41" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="T41" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="U41" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="V41" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="W41" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="X41" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="Y41" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="C43" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="D43" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="E43" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="F43" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="G43" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="H43" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="I43" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="K43" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="L43" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="M43" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="N43" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="O43" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="P43" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="Q43" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="R43" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="S43" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="T43" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="U43" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="V43" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="W43" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="X43" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="C44" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="D44" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="E44" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="F44" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="G44" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="H44" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="I44" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="T44" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="U44" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="V44" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="W44" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="X44" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="Y44" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="C46" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="D46" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="E46" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="F46" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="G46" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="H46" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="I46" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="K46" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="L46" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="M46" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="N46" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="O46" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="P46" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="R46" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="S46" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="T46" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="U46" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="V46" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="W46" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="X46" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648176</v>
       </c>
     </row>
   </sheetData>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>42.34905430330018</v>
+      </c>
+      <c r="M2" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>42.34905430330019</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>44.13217237922859</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M3" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O3" t="n">
-        <v>42.34905430330019</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34944,16 +34944,16 @@
         <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N5" t="n">
-        <v>42.34905430330018</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O5" t="n">
-        <v>44.13217237922859</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35020,19 +35020,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>42.34905430330018</v>
+      </c>
+      <c r="P6" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="O6" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="P6" t="n">
-        <v>42.34905430330019</v>
       </c>
       <c r="Q6" t="n">
         <v>44.13217237922859</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>93.41644634782179</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>93.41644634782179</v>
+        <v>92.49277840678684</v>
       </c>
       <c r="M8" t="n">
-        <v>93.41644634782179</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>93.41644634781956</v>
       </c>
       <c r="O8" t="n">
-        <v>89.64204447518252</v>
+        <v>93.41644634781956</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>93.41644634782179</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>93.41644634782179</v>
+        <v>93.41644634781956</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>89.64204447518037</v>
       </c>
       <c r="N9" t="n">
-        <v>89.64204447518252</v>
+        <v>93.41644634781956</v>
       </c>
       <c r="O9" t="n">
-        <v>93.41644634782179</v>
+        <v>93.41644634781956</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.8578301584804</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268384</v>
       </c>
       <c r="L12" t="n">
-        <v>509.4561008748672</v>
+        <v>315.3001047649452</v>
       </c>
       <c r="M12" t="n">
-        <v>181.310440762227</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N12" t="n">
-        <v>248.7689815793672</v>
+        <v>680.0057497502855</v>
       </c>
       <c r="O12" t="n">
         <v>554.9858674269927</v>
       </c>
       <c r="P12" t="n">
-        <v>428.2502711927642</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q12" t="n">
         <v>233.0438950105733</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>69.7586331947127</v>
+        <v>69.75863319471284</v>
       </c>
       <c r="K13" t="n">
-        <v>189.5230908296229</v>
+        <v>189.523090829623</v>
       </c>
       <c r="L13" t="n">
-        <v>274.1544699257931</v>
+        <v>274.1544699257933</v>
       </c>
       <c r="M13" t="n">
-        <v>294.797506106015</v>
+        <v>294.7975061060151</v>
       </c>
       <c r="N13" t="n">
-        <v>295.3568637998194</v>
+        <v>295.3568637998195</v>
       </c>
       <c r="O13" t="n">
-        <v>263.3079047619351</v>
+        <v>263.3079047619352</v>
       </c>
       <c r="P13" t="n">
-        <v>214.1691989134672</v>
+        <v>214.1691989134673</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.90732297583511</v>
+        <v>90.90732297583526</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K14" t="n">
-        <v>293.4855187449393</v>
+        <v>293.4855187449406</v>
       </c>
       <c r="L14" t="n">
         <v>558.3972305517162</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>119.8578301584804</v>
+        <v>15.92129162592716</v>
       </c>
       <c r="K15" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268384</v>
       </c>
       <c r="L15" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M15" t="n">
-        <v>229.4160469348625</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N15" t="n">
-        <v>200.6633754067319</v>
+        <v>680.0057497502855</v>
       </c>
       <c r="O15" t="n">
         <v>554.9858674269927</v>
       </c>
       <c r="P15" t="n">
-        <v>428.2502711927642</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.0438950105733</v>
+        <v>22.9666072747242</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35816,7 +35816,7 @@
         <v>294.797506106015</v>
       </c>
       <c r="N16" t="n">
-        <v>295.3568637998193</v>
+        <v>295.3568637998194</v>
       </c>
       <c r="O16" t="n">
         <v>263.3079047619351</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>76.48833287998058</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K17" t="n">
         <v>407.5425384040863</v>
@@ -35901,7 +35901,7 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P17" t="n">
-        <v>433.6515619588831</v>
+        <v>319.594542299738</v>
       </c>
       <c r="Q17" t="n">
         <v>247.6524856312128</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>119.8578301584804</v>
       </c>
       <c r="K18" t="n">
-        <v>68.29072693268384</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L18" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M18" t="n">
-        <v>647.0155045122269</v>
+        <v>181.310440762227</v>
       </c>
       <c r="N18" t="n">
-        <v>680.0057497502855</v>
+        <v>642.6313008560969</v>
       </c>
       <c r="O18" t="n">
-        <v>554.9858674269927</v>
+        <v>161.1235481502632</v>
       </c>
       <c r="P18" t="n">
-        <v>125.7087941787544</v>
+        <v>428.2502711927642</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.9666072747242</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>558.3972305517162</v>
       </c>
       <c r="M20" t="n">
-        <v>524.0417793138949</v>
+        <v>638.0987989730421</v>
       </c>
       <c r="N20" t="n">
         <v>633.6441091513602</v>
@@ -36141,7 +36141,7 @@
         <v>433.6515619588831</v>
       </c>
       <c r="Q20" t="n">
-        <v>247.6524856312128</v>
+        <v>133.5954659720677</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>119.8578301584804</v>
       </c>
       <c r="K21" t="n">
-        <v>68.29072693268384</v>
+        <v>125.1172459677406</v>
       </c>
       <c r="L21" t="n">
         <v>138.615755571408</v>
@@ -36217,7 +36217,7 @@
         <v>554.9858674269927</v>
       </c>
       <c r="P21" t="n">
-        <v>166.6140215878841</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q21" t="n">
         <v>233.0438950105733</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>76.48833287998058</v>
+        <v>76.48833287998238</v>
       </c>
       <c r="K23" t="n">
         <v>407.5425384040863</v>
@@ -36454,10 +36454,10 @@
         <v>554.9858674269927</v>
       </c>
       <c r="P24" t="n">
-        <v>125.7087941787544</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.9666072747242</v>
+        <v>38.88789890065158</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,16 +36679,16 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L27" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M27" t="n">
-        <v>181.310440762227</v>
+        <v>229.4160469348622</v>
       </c>
       <c r="N27" t="n">
-        <v>680.0057497502855</v>
+        <v>200.6633754067319</v>
       </c>
       <c r="O27" t="n">
-        <v>494.5894445595337</v>
+        <v>554.9858674269927</v>
       </c>
       <c r="P27" t="n">
         <v>428.2502711927642</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>62.30614753018415</v>
+        <v>62.30614753018412</v>
       </c>
       <c r="K28" t="n">
         <v>182.0706051650943</v>
@@ -36773,7 +36773,7 @@
         <v>206.7167132489386</v>
       </c>
       <c r="Q28" t="n">
-        <v>83.45483731130656</v>
+        <v>83.45483731130653</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>119.8578301584804</v>
       </c>
       <c r="K30" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L30" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M30" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348622</v>
       </c>
       <c r="N30" t="n">
-        <v>680.0057497502855</v>
+        <v>200.6633754067319</v>
       </c>
       <c r="O30" t="n">
-        <v>161.1235481502632</v>
+        <v>554.9858674269927</v>
       </c>
       <c r="P30" t="n">
-        <v>415.8689340105151</v>
+        <v>428.2502711927642</v>
       </c>
       <c r="Q30" t="n">
         <v>233.0438950105733</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.5453525391276</v>
+        <v>76.48833287998147</v>
       </c>
       <c r="K32" t="n">
         <v>407.5425384040863</v>
@@ -37086,7 +37086,7 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P32" t="n">
-        <v>319.594542299738</v>
+        <v>433.6515619588831</v>
       </c>
       <c r="Q32" t="n">
         <v>247.6524856312128</v>
@@ -37153,22 +37153,22 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L33" t="n">
-        <v>509.4561008748672</v>
+        <v>141.0543253297353</v>
       </c>
       <c r="M33" t="n">
-        <v>229.4160469348625</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N33" t="n">
-        <v>200.6633754067319</v>
+        <v>680.0057497502855</v>
       </c>
       <c r="O33" t="n">
         <v>554.9858674269927</v>
       </c>
       <c r="P33" t="n">
-        <v>428.2502711927642</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q33" t="n">
-        <v>233.0438950105733</v>
+        <v>22.9666072747242</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>69.75863319471271</v>
+        <v>69.75863319471269</v>
       </c>
       <c r="K34" t="n">
         <v>189.5230908296229</v>
@@ -37235,10 +37235,10 @@
         <v>274.1544699257931</v>
       </c>
       <c r="M34" t="n">
-        <v>294.797506106015</v>
+        <v>294.7975061060149</v>
       </c>
       <c r="N34" t="n">
-        <v>295.3568637998194</v>
+        <v>295.3568637998193</v>
       </c>
       <c r="O34" t="n">
         <v>263.3079047619351</v>
@@ -37247,7 +37247,7 @@
         <v>214.1691989134672</v>
       </c>
       <c r="Q34" t="n">
-        <v>90.90732297583513</v>
+        <v>90.9073229758351</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>76.48833287998147</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K35" t="n">
         <v>407.5425384040863</v>
@@ -37314,7 +37314,7 @@
         <v>558.3972305517162</v>
       </c>
       <c r="M35" t="n">
-        <v>638.0987989730421</v>
+        <v>524.0417793138968</v>
       </c>
       <c r="N35" t="n">
         <v>633.6441091513602</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>119.8578301584804</v>
       </c>
       <c r="K36" t="n">
         <v>332.7559639452625</v>
@@ -37396,7 +37396,7 @@
         <v>181.310440762227</v>
       </c>
       <c r="N36" t="n">
-        <v>368.6268117378475</v>
+        <v>248.7689815793672</v>
       </c>
       <c r="O36" t="n">
         <v>554.9858674269927</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>69.75863319471271</v>
+        <v>69.7586331947127</v>
       </c>
       <c r="K37" t="n">
         <v>189.5230908296229</v>
@@ -37484,7 +37484,7 @@
         <v>214.1691989134672</v>
       </c>
       <c r="Q37" t="n">
-        <v>90.90732297583513</v>
+        <v>90.90732297583511</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37560,10 +37560,10 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P38" t="n">
-        <v>319.594542299738</v>
+        <v>433.6515619588831</v>
       </c>
       <c r="Q38" t="n">
-        <v>247.6524856312128</v>
+        <v>133.5954659720677</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>119.8578301584804</v>
       </c>
       <c r="K39" t="n">
         <v>68.29072693268384</v>
@@ -37633,16 +37633,16 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N39" t="n">
-        <v>680.0057497502855</v>
+        <v>200.6633754067319</v>
       </c>
       <c r="O39" t="n">
         <v>554.9858674269927</v>
       </c>
       <c r="P39" t="n">
-        <v>109.7875025528271</v>
+        <v>275.1160506279787</v>
       </c>
       <c r="Q39" t="n">
-        <v>38.88789890065158</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L41" t="n">
-        <v>558.3972305517162</v>
+        <v>444.3402108925711</v>
       </c>
       <c r="M41" t="n">
         <v>638.0987989730421</v>
@@ -37797,7 +37797,7 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P41" t="n">
-        <v>319.5945422997376</v>
+        <v>433.6515619588831</v>
       </c>
       <c r="Q41" t="n">
         <v>247.6524856312128</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>119.8578301584804</v>
       </c>
       <c r="K42" t="n">
-        <v>68.29072693268384</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L42" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M42" t="n">
-        <v>647.0155045122269</v>
+        <v>181.310440762227</v>
       </c>
       <c r="N42" t="n">
-        <v>680.0057497502855</v>
+        <v>248.7689815793672</v>
       </c>
       <c r="O42" t="n">
         <v>554.9858674269927</v>
       </c>
       <c r="P42" t="n">
-        <v>125.7087941787544</v>
+        <v>428.2502711927642</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.9666072747242</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>69.75863319471271</v>
+        <v>69.75863319471269</v>
       </c>
       <c r="K43" t="n">
         <v>189.5230908296229</v>
@@ -37946,10 +37946,10 @@
         <v>274.1544699257931</v>
       </c>
       <c r="M43" t="n">
-        <v>294.797506106015</v>
+        <v>294.7975061060149</v>
       </c>
       <c r="N43" t="n">
-        <v>295.3568637998194</v>
+        <v>295.3568637998193</v>
       </c>
       <c r="O43" t="n">
         <v>263.3079047619351</v>
@@ -37958,7 +37958,7 @@
         <v>214.1691989134672</v>
       </c>
       <c r="Q43" t="n">
-        <v>90.90732297583513</v>
+        <v>90.9073229758351</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.5453525391276</v>
+        <v>76.48833287998238</v>
       </c>
       <c r="K44" t="n">
         <v>407.5425384040863</v>
@@ -38034,7 +38034,7 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P44" t="n">
-        <v>319.5945422997376</v>
+        <v>433.6515619588831</v>
       </c>
       <c r="Q44" t="n">
         <v>247.6524856312128</v>
@@ -38101,22 +38101,22 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L45" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M45" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N45" t="n">
-        <v>680.0057497502855</v>
+        <v>200.6633754067319</v>
       </c>
       <c r="O45" t="n">
-        <v>554.9858674269927</v>
+        <v>257.2442400081088</v>
       </c>
       <c r="P45" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927642</v>
       </c>
       <c r="Q45" t="n">
-        <v>145.2630071915323</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>69.75863319471269</v>
+        <v>69.75863319471276</v>
       </c>
       <c r="K46" t="n">
-        <v>189.5230908296229</v>
+        <v>189.523090829623</v>
       </c>
       <c r="L46" t="n">
-        <v>274.1544699257931</v>
+        <v>274.1544699257932</v>
       </c>
       <c r="M46" t="n">
-        <v>294.7975061060149</v>
+        <v>294.797506106015</v>
       </c>
       <c r="N46" t="n">
-        <v>295.3568637998193</v>
+        <v>295.3568637998194</v>
       </c>
       <c r="O46" t="n">
-        <v>263.3079047619351</v>
+        <v>263.3079047619352</v>
       </c>
       <c r="P46" t="n">
-        <v>214.1691989134672</v>
+        <v>214.1691989134673</v>
       </c>
       <c r="Q46" t="n">
-        <v>90.9073229758351</v>
+        <v>90.90732297583517</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
